--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388DB187-F78A-814E-99AC-04B6F828E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C2C3A8-A865-9A4B-B7F7-F2001600CE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="217">
   <si>
     <t>Activity</t>
   </si>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>concrete, normal strength</t>
+  </si>
+  <si>
+    <t>market for spent anion exchange resin from potable water production</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="B210" sqref="B210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4025,13 +4028,13 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="B183">
         <v>-6000000</v>
       </c>
       <c r="C183" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="D183" t="s">
         <v>6</v>
@@ -4040,7 +4043,7 @@
         <v>16</v>
       </c>
       <c r="G183" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.2">
@@ -4463,8 +4466,8 @@
         <v>99</v>
       </c>
       <c r="B209" s="14">
-        <f>0.36*(AVERAGE(33.94,48.48))*(1-0.97)</f>
-        <v>0.44506800000000035</v>
+        <f>0.36*(AVERAGE(33.94,48.48))*(1-0.95)</f>
+        <v>0.74178000000000055</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C2C3A8-A865-9A4B-B7F7-F2001600CE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48223EB1-99C7-2E40-9991-DFCE1887DDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$343</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="227">
   <si>
     <t>Activity</t>
   </si>
@@ -592,9 +592,6 @@
     <t>carbon dioxide, captured and reused</t>
   </si>
   <si>
-    <t>The MEA technology considered for this study is modelled after Tang and You, 2018, Reiter and Lindorfer, 2015. After flue gas condensation, the cooled flue gas is fed into a reactor containing a 30% MEA solution, which absorbs around 85–90% of the CO2, typically at 25 °C–50 °C at 1 bar. The process is exothermic. The CO2-rich solution is heated afterwards to 100–140 °C, and in a stripper at 1–2 bars the CO2 desorbs from the MEA and leaves saturated with water vapour. The water is then condensed from the CO2 stream, and the CO2 is compressed to around 150 bar for transporting in pipes or a lower pressure for local tank storage and shipment by truck. The recovered MEA is reused in the plant (Pour et al., 2018). About 4 kg of MEA is used per tonne of CO2, due to degradation (releasing around 0.1 kg NH3 per tonne CO2 captured), the formation of heat-stable salts and losses as vapour and aerosols during stripping (the latter is around 0.01 kg per tonne of CO2 captured). NaOH is added in the stripping step at an amount of 0.1 kg per tonne CO2 captured. Around 4 kg of solid waste is generated per tonne of CO2 captured; this waste is disregarded. The MEA CC process also reduces the content of other pollutants in the flue gas, the extent of which depends on whether flue gas condensation is already in place or is introduced as part of the CO2 capture system. SOx, HCl, particulate matter and heavy metals are reduced to very low levels by flue gas condensation and subsequent CC. The level of NH3 increases in the flue gas after CC because of degradation of MEA. This is not included here. Source: Valentina Bisinella, Tore Hulgaard, Christian Riber, Anders Damgaard, Thomas H. Christensen, Environmental assessment of carbon capture and storage (CCS) as a post-treatment technology in waste incineration, Waste Management, 2021, https://doi.org/10.1016/j.wasman.2021.04.046.</t>
-  </si>
-  <si>
     <t>share biogenic CO2</t>
   </si>
   <si>
@@ -655,9 +652,6 @@
     <t>heat, from steam, in chemical industry</t>
   </si>
   <si>
-    <t>Originally 3.7 MJ, discounted by 60% to reflect heat recovery and injection in district heating system.</t>
-  </si>
-  <si>
     <t>market for activated carbon, granular</t>
   </si>
   <si>
@@ -670,9 +664,6 @@
     <t>Alternative production of methanol from industrial CO2. Meunier et al. 2020. Renewable Energy 146, pp. 1192-1203</t>
   </si>
   <si>
-    <t>Capture of CO2 from a cement plant for subsequent reuse. It is a facility integrated in a synthetic fuel production chain, so a certain amount of the needed steam heat (used to regenerate the sorbent) can come from excess heat generated by the synfuel conversion process, the rest being complemented by a dedicated source. In Meunier et al. 2020, 26% comes from excess heat generated by the methanol production process. To be changed according to needs. Also, there is no need for water, as it is provided by the methanol production process as well. CO2 chemical absorption-regeneration process using amines as scrubbing solvent. The amine solution used for this absorption was an aqueous solution of monoethanolamine (MEA) in a mass concentration of 30 wt.%, widely studied and considered as a benchmark for industrial CO2 capture applications. The CO2 is pre-compressed at 2 bar before storage. 10% of the CO2 is released back into the atmosphere (because the CO2 absoprtion rate is only 90%). The MEA makeup has been considered to 1 kg MEA per ton captured CO2 to compensate the losses due to the thermal degradation of the amine only, as the evaporation of the amine in the absorber is prevented by a flash tank. The rate of fossil vs. biogenic CO2 received from the cement plant need to be reflected in this dataset in two places: at the leakage level, but also at the storage level. At the storage level, we only indicate biogenic CO2. By default, we asusme 20% of the CO2 emissions are biogenic.</t>
-  </si>
-  <si>
     <t>credit allocation to fuel producer</t>
   </si>
   <si>
@@ -689,6 +680,45 @@
   </si>
   <si>
     <t>market for spent anion exchange resin from potable water production</t>
+  </si>
+  <si>
+    <t>Originally 3.7 MJ, without heat recovery. 0.4 MJ using heat from teh MSWI plant. However, when doing so, 40% of teh heat is lost and cannot be redistributed to the heating district system. Hence, we add this loss to the amount of external heat needed.</t>
+  </si>
+  <si>
+    <t>The MEA technology considered for this study is modelled after Tang and You, 2018, Reiter and Lindorfer, 2015. After flue gas condensation, the cooled flue gas is fed into a reactor containing a 30% MEA solution, which absorbs around 85–90% of the CO2, typically at 25 °C–50 °C at 1 bar. The process is exothermic. The CO2-rich solution is heated afterwards to 100–140 °C, and in a stripper at 1–2 bars the CO2 desorbs from the MEA and leaves saturated with water vapour. The water is then condensed from the CO2 stream, and the CO2 is compressed to around 150 bar for transporting in pipes or a lower pressure for local tank storage and shipment by truck. The recovered MEA is reused in the plant (Pour et al., 2018). About 4 kg of MEA is used per tonne of CO2, due to degradation (releasing around 0.1 kg NH3 per tonne CO2 captured), the formation of heat-stable salts and losses as vapour and aerosols during stripping (the latter is around 0.01 kg per tonne of CO2 captured). NaOH is added in the stripping step at an amount of 0.1 kg per tonne CO2 captured. Around 4 kg of solid waste is generated per tonne of CO2 captured; this waste is disregarded. The MEA CC process also reduces the content of other pollutants in the flue gas, the extent of which depends on whether flue gas condensation is already in place or is introduced as part of the CO2 capture system. SOx, HCl, particulate matter and heavy metals are reduced to very low levels by flue gas condensation and subsequent CC. The level of NH3 increases in the flue gas after CC because of degradation of MEA. This is not included here. In the publication, a scenario where 90% of the needed heat comes from recovered heat from the MSWI plant. It is assumed here. However, 40% of the 90% is lost and cannot be redistructed to the district heating system afterwards. We also include this penalty here. Source: Valentina Bisinella, Tore Hulgaard, Christian Riber, Anders Damgaard, Thomas H. Christensen, Environmental assessment of carbon capture and storage (CCS) as a post-treatment technology in waste incineration, Waste Management, 2021, https://doi.org/10.1016/j.wasman.2021.04.046.</t>
+  </si>
+  <si>
+    <t>Capture of CO2 from a cement plant for subsequent reuse. It is a facility integrated in a synthetic fuel production chain, so a certain amount of the needed steam heat (used to regenerate the sorbent) can come from excess heat generated by the synfuel conversion process, the rest being complemented by a dedicated source. In Meunier et al. 2020, 26% comes from excess heat generated by the methanol production process. In Davilà, Sacchi and Pizool, 2023, close to 30% of the heat need comes from the cement kiln. We use the latter. To be changed according to needs. Also, there is no need for water, as it is provided by the methanol production process as well. CO2 chemical absorption-regeneration process using amines as scrubbing solvent. The amine solution used for this absorption was an aqueous solution of monoethanolamine (MEA) in a mass concentration of 30 wt.%, widely studied and considered as a benchmark for industrial CO2 capture applications. The CO2 is pre-compressed at 2 bar before storage. 10% of the CO2 is released back into the atmosphere (because the CO2 absoprtion rate is only 90%). The original publication considers the MEA makeup to be 1 kg per ton captured CO2 to compensate the losses due to the thermal degradation of the amine only, as the evaporation of the amine in the absorber is prevented by a flash tank. We correct this value to 4 kg, to algin with other point source capture and DAC datasets. The rate of fossil vs. biogenic CO2 received from the cement plant need to be reflected in this dataset in two places: at the leakage level, but also at the storage level. At the storage level, we only indicate biogenic CO2. By default, we asusme 6% of the CO2 emissions are biogenic (i.e., Switzerland).</t>
+  </si>
+  <si>
+    <t>Occupation, industrial area</t>
+  </si>
+  <si>
+    <t>square meter-year</t>
+  </si>
+  <si>
+    <t>Land occupation</t>
+  </si>
+  <si>
+    <t>Transformation, to industrial area</t>
+  </si>
+  <si>
+    <t>square meter</t>
+  </si>
+  <si>
+    <t>natural resource::land</t>
+  </si>
+  <si>
+    <t>Land transformation</t>
+  </si>
+  <si>
+    <t>Transformation, from unspecified</t>
+  </si>
+  <si>
+    <t>For the sorbent system, the LCI data are collected from the work of Deutz and Bardow based on the Climeworks system. The LCI data represent a plant with an annual capacity of 100 kt CO2/year and a lifetime of 20 years. The surface occupied is 7838 m2 over 20 years.</t>
+  </si>
+  <si>
+    <t>Based on a solvent-based DAC facility with annual capture capacity of 1 Mt CO2 and lifetime of 20 years. Qiu, Y., Lamers, P., Daioglou, V. et al. Environmental trade-offs of direct air capture technologies in climate change mitigation toward 2100. Nat Commun 13, 3635 (2022). https://doi.org/10.1038/s41467-022-31146-1 We do not have information on the surface occupied, hence we scale up the land occupation and transformation values for the sorbent-based system.</t>
   </si>
 </sst>
 </file>
@@ -1141,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T337"/>
+  <dimension ref="A1:T343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1883,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -1947,7 +1977,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B57">
         <v>134000</v>
@@ -1962,7 +1992,7 @@
         <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H57" t="s">
         <v>50</v>
@@ -2108,7 +2138,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B64">
         <v>66000</v>
@@ -2123,7 +2153,7 @@
         <v>16</v>
       </c>
       <c r="G64" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H64" t="s">
         <v>56</v>
@@ -2154,7 +2184,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B66">
         <v>42000</v>
@@ -2169,7 +2199,7 @@
         <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H66" t="s">
         <v>58</v>
@@ -2223,7 +2253,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B69">
         <v>74000</v>
@@ -2238,7 +2268,7 @@
         <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H69" t="s">
         <v>63</v>
@@ -2344,203 +2374,197 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>66</v>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74">
+        <f>78380/1000000000/20</f>
+        <v>3.9190000000000001E-6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" t="s">
+        <v>222</v>
+      </c>
+      <c r="F74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75">
+        <f>78380/1000000000</f>
+        <v>7.8380000000000005E-5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>221</v>
+      </c>
+      <c r="E75" t="s">
+        <v>222</v>
+      </c>
+      <c r="F75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <f>78380/1000000000</f>
+        <v>7.8380000000000005E-5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" t="s">
+        <v>222</v>
+      </c>
+      <c r="F76" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4</v>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" t="s">
-        <v>5</v>
-      </c>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" t="s">
-        <v>3</v>
-      </c>
-      <c r="G84" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>66</v>
-      </c>
-      <c r="B85">
-        <v>-1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>67</v>
-      </c>
-      <c r="B86" s="11">
-        <v>-760000000</v>
-      </c>
-      <c r="C86" t="s">
-        <v>138</v>
-      </c>
-      <c r="D86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" t="s">
-        <v>169</v>
-      </c>
-      <c r="H86" s="12"/>
-      <c r="Q86" s="4"/>
-      <c r="S86" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" s="11">
-        <v>-12000000</v>
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>168</v>
-      </c>
-      <c r="H87" s="12"/>
-      <c r="Q87" s="3"/>
-      <c r="S87" s="3"/>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B88" s="11">
-        <v>-76000</v>
+        <v>66</v>
+      </c>
+      <c r="B88">
+        <v>-1</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s">
-        <v>167</v>
-      </c>
-      <c r="H88" s="12"/>
-      <c r="Q88" s="3"/>
-      <c r="S88" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B89" s="11">
-        <v>-15200000</v>
+        <v>-760000000</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="D89" t="s">
         <v>6</v>
@@ -2549,17 +2573,18 @@
         <v>16</v>
       </c>
       <c r="G89" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H89" s="12"/>
-      <c r="I89" s="13"/>
+      <c r="Q89" s="4"/>
+      <c r="S89" s="4"/>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B90" s="11">
-        <v>-16000</v>
+        <v>-12000000</v>
       </c>
       <c r="C90" t="s">
         <v>23</v>
@@ -2571,16 +2596,18 @@
         <v>16</v>
       </c>
       <c r="G90" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H90" s="12"/>
+      <c r="Q90" s="3"/>
+      <c r="S90" s="3"/>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B91" s="11">
-        <v>-10000</v>
+        <v>-76000</v>
       </c>
       <c r="C91" t="s">
         <v>23</v>
@@ -2592,16 +2619,18 @@
         <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H91" s="12"/>
+      <c r="Q91" s="3"/>
+      <c r="S91" s="3"/>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B92" s="11">
-        <v>-2400000</v>
+        <v>-15200000</v>
       </c>
       <c r="C92" t="s">
         <v>23</v>
@@ -2613,19 +2642,20 @@
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H92" s="12"/>
+      <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B93" s="11">
-        <v>-46000</v>
+        <v>-16000</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
         <v>6</v>
@@ -2634,19 +2664,19 @@
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="H93" s="12"/>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B94" s="11">
-        <v>-80000000</v>
+        <v>-10000</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
@@ -2655,16 +2685,16 @@
         <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H94" s="12"/>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B95" s="11">
-        <v>-70000000</v>
+        <v>-2400000</v>
       </c>
       <c r="C95" t="s">
         <v>23</v>
@@ -2676,825 +2706,819 @@
         <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H95" s="12"/>
     </row>
-    <row r="97" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>120</v>
-      </c>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" s="11">
+        <v>-46000</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>62</v>
+      </c>
+      <c r="H96" s="12"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" s="11">
+        <v>-80000000</v>
+      </c>
+      <c r="C97" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>147</v>
+      </c>
+      <c r="H97" s="12"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>3</v>
-      </c>
-      <c r="B100" t="s">
-        <v>4</v>
+        <v>76</v>
+      </c>
+      <c r="B98" s="11">
+        <v>-70000000</v>
+      </c>
+      <c r="C98" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>162</v>
+      </c>
+      <c r="H98" s="12"/>
+    </row>
+    <row r="100" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" t="s">
-        <v>5</v>
-      </c>
-      <c r="E106" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" t="s">
-        <v>3</v>
-      </c>
-      <c r="G106" t="s">
-        <v>2</v>
-      </c>
-      <c r="H106" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>120</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" t="s">
-        <v>6</v>
-      </c>
-      <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B107" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>83</v>
-      </c>
-      <c r="B108">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C108" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H108" t="s">
-        <v>180</v>
+      <c r="A108" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>120</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>83</v>
+      </c>
+      <c r="B111">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H111" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>121</v>
       </c>
-      <c r="B109">
+      <c r="B112">
         <f>1/(100000000*20)</f>
         <v>5.0000000000000003E-10</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C112" t="s">
         <v>8</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D112" t="s">
         <v>5</v>
       </c>
-      <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="F112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" t="s">
         <v>65</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H112" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>136</v>
       </c>
-      <c r="B110">
+      <c r="B113">
         <f>-1/(100000000*20)</f>
         <v>-5.0000000000000003E-10</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C113" t="s">
         <v>8</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D113" t="s">
         <v>5</v>
       </c>
-      <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" t="s">
         <v>65</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H113" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>80</v>
-      </c>
-      <c r="B111">
-        <v>0.5</v>
-      </c>
-      <c r="C111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" t="s">
-        <v>25</v>
-      </c>
-      <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s">
-        <v>81</v>
-      </c>
-      <c r="H111" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>82</v>
-      </c>
-      <c r="B112">
-        <v>5.4</v>
-      </c>
-      <c r="C112" t="s">
-        <v>138</v>
-      </c>
-      <c r="D112" t="s">
-        <v>24</v>
-      </c>
-      <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s">
-        <v>170</v>
-      </c>
-      <c r="H112" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>41</v>
-      </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="D113" t="s">
-        <v>6</v>
-      </c>
-      <c r="E113" t="s">
-        <v>39</v>
-      </c>
-      <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="H113" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>40</v>
-      </c>
-      <c r="B114" s="6">
-        <v>2.1000000000000001E-2</v>
+        <v>80</v>
+      </c>
+      <c r="B114">
+        <v>0.5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>6</v>
-      </c>
-      <c r="E114" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F114" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>81</v>
+      </c>
+      <c r="H114" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>82</v>
+      </c>
+      <c r="B115">
+        <v>5.4</v>
+      </c>
+      <c r="C115" t="s">
+        <v>138</v>
+      </c>
+      <c r="D115" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" t="s">
+        <v>170</v>
+      </c>
+      <c r="H115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>39</v>
+      </c>
+      <c r="F116" t="s">
         <v>21</v>
       </c>
-      <c r="H114" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>173</v>
+      <c r="H116" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>3</v>
-      </c>
-      <c r="B119" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="B117" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" t="s">
+        <v>21</v>
+      </c>
+      <c r="H117" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B120" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" t="s">
-        <v>7</v>
-      </c>
-      <c r="D125" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" t="s">
-        <v>3</v>
-      </c>
-      <c r="G125" t="s">
-        <v>2</v>
-      </c>
-      <c r="H125" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>173</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>15</v>
-      </c>
-      <c r="G126" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>83</v>
-      </c>
-      <c r="B127">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C127" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" t="s">
-        <v>6</v>
-      </c>
-      <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H127" t="s">
-        <v>115</v>
+      <c r="A127" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" t="s">
+        <v>2</v>
+      </c>
+      <c r="H128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>173</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H130" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>121</v>
       </c>
-      <c r="B128">
+      <c r="B131">
         <f>1/(100000000*20)</f>
         <v>5.0000000000000003E-10</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C131" t="s">
         <v>8</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D131" t="s">
         <v>5</v>
       </c>
-      <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s">
+      <c r="F131" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
         <v>65</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H131" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>136</v>
       </c>
-      <c r="B129">
+      <c r="B132">
         <f>-1/(100000000*20)</f>
         <v>-5.0000000000000003E-10</v>
       </c>
-      <c r="C129" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" t="s">
-        <v>5</v>
-      </c>
-      <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s">
-        <v>65</v>
-      </c>
-      <c r="H129" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>80</v>
-      </c>
-      <c r="B130">
-        <v>0.5</v>
-      </c>
-      <c r="C130" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s">
-        <v>81</v>
-      </c>
-      <c r="H130" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>82</v>
-      </c>
-      <c r="B131">
-        <v>5.4</v>
-      </c>
-      <c r="C131" t="s">
-        <v>138</v>
-      </c>
-      <c r="D131" t="s">
-        <v>24</v>
-      </c>
-      <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s">
-        <v>170</v>
-      </c>
-      <c r="H131" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>103</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
       <c r="C132" t="s">
         <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
       </c>
-      <c r="G132" s="8" t="s">
-        <v>104</v>
+      <c r="G132" t="s">
+        <v>65</v>
       </c>
       <c r="H132" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>6</v>
-      </c>
-      <c r="E133" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>81</v>
       </c>
       <c r="H133" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>40</v>
-      </c>
-      <c r="B134" s="6">
-        <v>2.1000000000000001E-2</v>
+        <v>82</v>
+      </c>
+      <c r="B134">
+        <v>5.4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>138</v>
       </c>
       <c r="D134" t="s">
-        <v>6</v>
-      </c>
-      <c r="E134" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F134" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>170</v>
+      </c>
+      <c r="H134" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>103</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>41</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" t="s">
+        <v>39</v>
+      </c>
+      <c r="F136" t="s">
         <v>21</v>
       </c>
-      <c r="H134" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>121</v>
+      <c r="H136" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>2</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>3</v>
-      </c>
-      <c r="B139" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="B137" s="6">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" t="s">
+        <v>22</v>
+      </c>
+      <c r="F137" t="s">
+        <v>21</v>
+      </c>
+      <c r="H137" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B140" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" t="s">
-        <v>3</v>
-      </c>
-      <c r="G145" t="s">
-        <v>2</v>
-      </c>
-      <c r="H145" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>121</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" t="s">
-        <v>5</v>
-      </c>
-      <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>213</v>
-      </c>
-      <c r="B147">
-        <v>8000</v>
-      </c>
-      <c r="C147" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147" t="s">
-        <v>51</v>
-      </c>
-      <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s">
-        <v>215</v>
-      </c>
-      <c r="H147" t="s">
-        <v>125</v>
+        <v>19</v>
+      </c>
+      <c r="B146" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>109</v>
-      </c>
-      <c r="B148">
-        <v>942000</v>
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D148" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="H148" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="B149">
-        <v>6000</v>
+        <v>1</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D149" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s">
-        <v>215</v>
-      </c>
-      <c r="H149" t="s">
-        <v>126</v>
+        <v>15</v>
+      </c>
+      <c r="G149" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="B150">
-        <v>548000.00000000012</v>
+        <v>8000</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="D150" t="s">
+        <v>51</v>
       </c>
       <c r="F150" t="s">
         <v>16</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="H150" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B151">
-        <v>120000</v>
+        <v>942000</v>
       </c>
       <c r="C151" t="s">
         <v>18</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" t="s">
         <v>6</v>
       </c>
       <c r="F151" t="s">
         <v>16</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H151" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="B152">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
-      </c>
-      <c r="D152" s="10" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="D152" t="s">
+        <v>51</v>
       </c>
       <c r="F152" t="s">
         <v>16</v>
       </c>
       <c r="G152" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="H152" t="s">
         <v>126</v>
@@ -3502,10 +3526,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="B153">
-        <v>276000.00000000006</v>
+        <v>548000.00000000012</v>
       </c>
       <c r="C153" t="s">
         <v>18</v>
@@ -3517,21 +3541,21 @@
         <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="H153" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B154">
-        <v>224000</v>
+        <v>120000</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>6</v>
@@ -3540,10 +3564,10 @@
         <v>16</v>
       </c>
       <c r="G154" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H154" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -3551,7 +3575,7 @@
         <v>122</v>
       </c>
       <c r="B155">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="C155" t="s">
         <v>18</v>
@@ -3566,18 +3590,18 @@
         <v>131</v>
       </c>
       <c r="H155" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="B156">
-        <v>12000</v>
+        <v>276000.00000000006</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>6</v>
@@ -3586,7 +3610,7 @@
         <v>16</v>
       </c>
       <c r="G156" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H156" t="s">
         <v>127</v>
@@ -3594,13 +3618,13 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="B157">
-        <v>10000</v>
+        <v>224000</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>6</v>
@@ -3609,7 +3633,7 @@
         <v>16</v>
       </c>
       <c r="G157" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="H157" t="s">
         <v>127</v>
@@ -3617,10 +3641,10 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="B158">
-        <v>160000</v>
+        <v>10000</v>
       </c>
       <c r="C158" t="s">
         <v>18</v>
@@ -3632,7 +3656,7 @@
         <v>16</v>
       </c>
       <c r="G158" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="H158" t="s">
         <v>127</v>
@@ -3640,10 +3664,10 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B159">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
@@ -3655,7 +3679,7 @@
         <v>16</v>
       </c>
       <c r="G159" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H159" t="s">
         <v>127</v>
@@ -3663,13 +3687,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="B160">
-        <v>338000</v>
+        <v>10000</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>6</v>
@@ -3678,18 +3702,18 @@
         <v>16</v>
       </c>
       <c r="G160" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="H160" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B161">
-        <v>28000</v>
+        <v>160000</v>
       </c>
       <c r="C161" t="s">
         <v>18</v>
@@ -3701,21 +3725,21 @@
         <v>16</v>
       </c>
       <c r="G161" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="H161" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B162">
-        <v>94000</v>
+        <v>10000</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>6</v>
@@ -3724,18 +3748,18 @@
         <v>16</v>
       </c>
       <c r="G162" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H162" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="B163">
-        <v>10000</v>
+        <v>338000</v>
       </c>
       <c r="C163" t="s">
         <v>8</v>
@@ -3747,7 +3771,7 @@
         <v>16</v>
       </c>
       <c r="G163" t="s">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="H163" t="s">
         <v>129</v>
@@ -3755,10 +3779,10 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="B164">
-        <v>10000</v>
+        <v>28000</v>
       </c>
       <c r="C164" t="s">
         <v>18</v>
@@ -3770,7 +3794,7 @@
         <v>16</v>
       </c>
       <c r="G164" t="s">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="H164" t="s">
         <v>129</v>
@@ -3778,13 +3802,13 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="B165">
-        <v>22000</v>
+        <v>94000</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>6</v>
@@ -3793,285 +3817,291 @@
         <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="H165" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="B166">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" t="s">
+        <v>132</v>
+      </c>
+      <c r="H166" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>160</v>
+      </c>
+      <c r="B167">
+        <v>10000</v>
+      </c>
+      <c r="C167" t="s">
         <v>18</v>
       </c>
-      <c r="D166" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s">
-        <v>32</v>
-      </c>
-      <c r="H166" t="s">
+      <c r="D167" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" t="s">
+        <v>161</v>
+      </c>
+      <c r="H167" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168">
+        <v>22000</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F168" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" t="s">
+        <v>52</v>
+      </c>
+      <c r="H168" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D167" s="10"/>
-    </row>
-    <row r="168" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>12000</v>
+      </c>
+      <c r="C169" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F169" t="s">
+        <v>16</v>
+      </c>
+      <c r="G169" t="s">
+        <v>32</v>
+      </c>
+      <c r="H169" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>2</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>65</v>
+        <v>217</v>
+      </c>
+      <c r="B170">
+        <f>7838/100000000/20</f>
+        <v>3.9190000000000001E-6</v>
+      </c>
+      <c r="D170" t="s">
+        <v>218</v>
+      </c>
+      <c r="E170" t="s">
+        <v>222</v>
+      </c>
+      <c r="F170" t="s">
+        <v>21</v>
+      </c>
+      <c r="H170" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>3</v>
-      </c>
-      <c r="B171" t="s">
-        <v>4</v>
+        <v>220</v>
+      </c>
+      <c r="B171">
+        <f>7838/100000000</f>
+        <v>7.8380000000000005E-5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>221</v>
+      </c>
+      <c r="E171" t="s">
+        <v>222</v>
+      </c>
+      <c r="F171" t="s">
+        <v>21</v>
+      </c>
+      <c r="H171" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" t="s">
-        <v>5</v>
+        <v>224</v>
+      </c>
+      <c r="B172">
+        <f>7838/100000000</f>
+        <v>7.8380000000000005E-5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>221</v>
+      </c>
+      <c r="E172" t="s">
+        <v>222</v>
+      </c>
+      <c r="F172" t="s">
+        <v>21</v>
+      </c>
+      <c r="H172" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>7</v>
-      </c>
-      <c r="B173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>9</v>
-      </c>
-      <c r="B174" t="s">
-        <v>119</v>
+      <c r="D173" s="10"/>
+    </row>
+    <row r="174" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>19</v>
-      </c>
-      <c r="B175" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>10</v>
+      <c r="A176" t="s">
+        <v>2</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" t="s">
-        <v>7</v>
-      </c>
-      <c r="D177" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>5</v>
       </c>
-      <c r="E177" t="s">
-        <v>13</v>
-      </c>
-      <c r="F177" t="s">
-        <v>3</v>
-      </c>
-      <c r="G177" t="s">
-        <v>2</v>
-      </c>
-      <c r="H177" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>136</v>
-      </c>
-      <c r="B178">
-        <v>-1</v>
-      </c>
-      <c r="C178" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="B178" t="s">
         <v>5</v>
-      </c>
-      <c r="F178" t="s">
-        <v>15</v>
-      </c>
-      <c r="G178" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>67</v>
-      </c>
-      <c r="B179">
-        <v>-29400000</v>
-      </c>
-      <c r="C179" t="s">
-        <v>138</v>
-      </c>
-      <c r="D179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F179" t="s">
-        <v>16</v>
-      </c>
-      <c r="G179" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q179" s="4"/>
-      <c r="S179" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>68</v>
-      </c>
-      <c r="B180">
-        <v>-2140000</v>
-      </c>
-      <c r="C180" t="s">
-        <v>23</v>
-      </c>
-      <c r="D180" t="s">
-        <v>6</v>
-      </c>
-      <c r="F180" t="s">
-        <v>16</v>
-      </c>
-      <c r="G180" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q180" s="3"/>
-      <c r="S180" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>69</v>
-      </c>
-      <c r="B181">
-        <v>-116000</v>
-      </c>
-      <c r="C181" t="s">
-        <v>23</v>
-      </c>
-      <c r="D181" t="s">
-        <v>6</v>
-      </c>
-      <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q181" s="3"/>
-      <c r="S181" s="3"/>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>74</v>
-      </c>
-      <c r="B182">
-        <v>-143999.99999999997</v>
-      </c>
-      <c r="C182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" t="s">
-        <v>6</v>
-      </c>
-      <c r="F182" t="s">
-        <v>16</v>
-      </c>
-      <c r="G182" t="s">
-        <v>62</v>
+        <v>19</v>
+      </c>
+      <c r="B181" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>216</v>
-      </c>
-      <c r="B183">
-        <v>-6000000</v>
+        <v>11</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D183" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E183" t="s">
+        <v>13</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H183" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B184">
-        <v>-20000</v>
+        <v>-1</v>
       </c>
       <c r="C184" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="D184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
-      </c>
-      <c r="G184" t="s">
-        <v>159</v>
+        <v>15</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="B185">
-        <v>-26000</v>
+        <v>-29400000</v>
       </c>
       <c r="C185" t="s">
         <v>138</v>
@@ -4083,277 +4113,265 @@
         <v>16</v>
       </c>
       <c r="G185" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="G186" s="7"/>
-    </row>
-    <row r="187" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Q185" s="4"/>
+      <c r="S185" s="4"/>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>68</v>
+      </c>
+      <c r="B186">
+        <v>-2140000</v>
+      </c>
+      <c r="C186" t="s">
+        <v>23</v>
+      </c>
+      <c r="D186" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" t="s">
+        <v>16</v>
+      </c>
+      <c r="G186" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q186" s="3"/>
+      <c r="S186" s="3"/>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>69</v>
+      </c>
+      <c r="B187">
+        <v>-116000</v>
+      </c>
+      <c r="C187" t="s">
+        <v>23</v>
+      </c>
+      <c r="D187" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>16</v>
+      </c>
+      <c r="G187" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q187" s="3"/>
+      <c r="S187" s="3"/>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>-143999.99999999997</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>2</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>84</v>
+        <v>213</v>
+      </c>
+      <c r="B189">
+        <v>-6000000</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>6</v>
+      </c>
+      <c r="F189" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>3</v>
-      </c>
-      <c r="B190" t="s">
-        <v>4</v>
+        <v>116</v>
+      </c>
+      <c r="B190">
+        <v>-20000</v>
+      </c>
+      <c r="C190" t="s">
+        <v>138</v>
+      </c>
+      <c r="D190" t="s">
+        <v>6</v>
+      </c>
+      <c r="F190" t="s">
+        <v>16</v>
+      </c>
+      <c r="G190" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B191" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>7</v>
-      </c>
-      <c r="B192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>9</v>
-      </c>
-      <c r="B193" t="s">
-        <v>181</v>
+        <v>137</v>
+      </c>
+      <c r="B191">
+        <v>-26000</v>
+      </c>
+      <c r="C191" t="s">
+        <v>138</v>
+      </c>
+      <c r="D191" t="s">
+        <v>6</v>
+      </c>
+      <c r="F191" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="G192" s="7"/>
+    </row>
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>19</v>
-      </c>
-      <c r="B194" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>10</v>
+      <c r="A195" t="s">
+        <v>2</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C196" t="s">
-        <v>7</v>
-      </c>
-      <c r="D196" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>5</v>
       </c>
-      <c r="E196" t="s">
-        <v>13</v>
-      </c>
-      <c r="F196" t="s">
-        <v>3</v>
-      </c>
-      <c r="G196" t="s">
-        <v>2</v>
-      </c>
-      <c r="H196" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>83</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" t="s">
-        <v>6</v>
-      </c>
-      <c r="F197" t="s">
-        <v>15</v>
-      </c>
-      <c r="G197" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H197" t="s">
-        <v>101</v>
+      <c r="B197" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>85</v>
-      </c>
-      <c r="B198">
-        <v>0.13</v>
-      </c>
-      <c r="C198" t="s">
-        <v>28</v>
-      </c>
-      <c r="D198" t="s">
-        <v>6</v>
-      </c>
-      <c r="F198" t="s">
-        <v>16</v>
-      </c>
-      <c r="G198" t="s">
-        <v>91</v>
-      </c>
-      <c r="H198" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q198" s="4"/>
-      <c r="S198" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>86</v>
-      </c>
-      <c r="B199">
-        <v>0.02</v>
-      </c>
-      <c r="C199" t="s">
-        <v>28</v>
-      </c>
-      <c r="D199" t="s">
-        <v>6</v>
-      </c>
-      <c r="F199" t="s">
-        <v>16</v>
-      </c>
-      <c r="G199" t="s">
-        <v>92</v>
-      </c>
-      <c r="H199" t="s">
-        <v>101</v>
+        <v>9</v>
+      </c>
+      <c r="B199" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>87</v>
-      </c>
-      <c r="B200">
-        <v>0.63</v>
-      </c>
-      <c r="C200" t="s">
-        <v>28</v>
-      </c>
-      <c r="D200" t="s">
-        <v>24</v>
-      </c>
-      <c r="F200" t="s">
-        <v>16</v>
-      </c>
-      <c r="G200" t="s">
-        <v>93</v>
-      </c>
-      <c r="H200" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" t="s">
+        <v>5</v>
+      </c>
+      <c r="E202" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" t="s">
+        <v>3</v>
+      </c>
+      <c r="G202" t="s">
+        <v>2</v>
+      </c>
+      <c r="H202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>83</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" t="s">
+        <v>6</v>
+      </c>
+      <c r="F203" t="s">
+        <v>15</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H203" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>88</v>
-      </c>
-      <c r="B201">
-        <v>1.29</v>
-      </c>
-      <c r="C201" t="s">
-        <v>28</v>
-      </c>
-      <c r="D201" t="s">
-        <v>6</v>
-      </c>
-      <c r="F201" t="s">
-        <v>16</v>
-      </c>
-      <c r="G201" t="s">
-        <v>94</v>
-      </c>
-      <c r="H201" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>214</v>
-      </c>
-      <c r="B202">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C202" t="s">
-        <v>28</v>
-      </c>
-      <c r="D202" t="s">
-        <v>51</v>
-      </c>
-      <c r="F202" t="s">
-        <v>16</v>
-      </c>
-      <c r="G202" t="s">
-        <v>157</v>
-      </c>
-      <c r="H202" t="s">
-        <v>101</v>
-      </c>
-      <c r="M202" s="2"/>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>156</v>
-      </c>
-      <c r="B203">
-        <v>4.1999999999999998E-5</v>
-      </c>
-      <c r="D203" t="s">
-        <v>6</v>
-      </c>
-      <c r="E203" t="s">
-        <v>89</v>
-      </c>
-      <c r="F203" t="s">
-        <v>21</v>
-      </c>
-      <c r="H203" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B204">
-        <v>0.71</v>
+        <v>0.13</v>
       </c>
       <c r="C204" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D204" t="s">
         <v>6</v>
@@ -4362,18 +4380,20 @@
         <v>16</v>
       </c>
       <c r="G204" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="H204" t="s">
-        <v>102</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="Q204" s="4"/>
+      <c r="S204" s="4"/>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>86</v>
       </c>
       <c r="B205">
-        <v>1.1399999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -4388,38 +4408,38 @@
         <v>92</v>
       </c>
       <c r="H205" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="C206" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D206" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F206" t="s">
         <v>16</v>
       </c>
       <c r="G206" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="H206" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B207">
-        <v>7.0000000000000007E-2</v>
+        <v>1.29</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -4431,182 +4451,180 @@
         <v>16</v>
       </c>
       <c r="G207" t="s">
+        <v>94</v>
+      </c>
+      <c r="H207" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="B208">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>51</v>
+      </c>
+      <c r="F208" t="s">
+        <v>16</v>
+      </c>
+      <c r="G208" t="s">
+        <v>157</v>
+      </c>
+      <c r="H208" t="s">
+        <v>101</v>
+      </c>
+      <c r="M208" s="2"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>156</v>
+      </c>
+      <c r="B209">
+        <v>4.1999999999999998E-5</v>
+      </c>
+      <c r="D209" t="s">
+        <v>6</v>
+      </c>
+      <c r="E209" t="s">
+        <v>89</v>
+      </c>
+      <c r="F209" t="s">
+        <v>21</v>
+      </c>
+      <c r="H209" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>95</v>
+      </c>
+      <c r="B210">
+        <v>0.71</v>
+      </c>
+      <c r="C210" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" t="s">
+        <v>6</v>
+      </c>
+      <c r="F210" t="s">
+        <v>16</v>
+      </c>
+      <c r="G210" t="s">
+        <v>149</v>
+      </c>
+      <c r="H210" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>86</v>
+      </c>
+      <c r="B211">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>6</v>
+      </c>
+      <c r="F211" t="s">
+        <v>16</v>
+      </c>
+      <c r="G211" t="s">
+        <v>92</v>
+      </c>
+      <c r="H211" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>96</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" t="s">
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" t="s">
+        <v>150</v>
+      </c>
+      <c r="H212" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>97</v>
+      </c>
+      <c r="B213">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>6</v>
+      </c>
+      <c r="F213" t="s">
+        <v>16</v>
+      </c>
+      <c r="G213" t="s">
         <v>151</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H213" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>98</v>
       </c>
-      <c r="B208">
+      <c r="B214">
         <f>1.24*0.05</f>
         <v>6.2E-2</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C214" t="s">
         <v>18</v>
       </c>
-      <c r="D208" t="s">
-        <v>6</v>
-      </c>
-      <c r="F208" t="s">
-        <v>16</v>
-      </c>
-      <c r="G208" t="s">
+      <c r="D214" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214" t="s">
+        <v>16</v>
+      </c>
+      <c r="G214" t="s">
         <v>152</v>
       </c>
-      <c r="H208" t="s">
+      <c r="H214" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row r="215" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
         <v>99</v>
       </c>
-      <c r="B209" s="14">
+      <c r="B215" s="14">
         <f>0.36*(AVERAGE(33.94,48.48))*(1-0.95)</f>
         <v>0.74178000000000055</v>
       </c>
-      <c r="C209" t="s">
-        <v>28</v>
-      </c>
-      <c r="D209" t="s">
-        <v>6</v>
-      </c>
-      <c r="F209" t="s">
-        <v>16</v>
-      </c>
-      <c r="G209" t="s">
-        <v>153</v>
-      </c>
-      <c r="H209" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>88</v>
-      </c>
-      <c r="B210">
-        <v>5.24</v>
-      </c>
-      <c r="C210" t="s">
-        <v>28</v>
-      </c>
-      <c r="D210" t="s">
-        <v>6</v>
-      </c>
-      <c r="F210" t="s">
-        <v>16</v>
-      </c>
-      <c r="G210" t="s">
-        <v>94</v>
-      </c>
-      <c r="H210" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>36</v>
-      </c>
-      <c r="B211">
-        <v>0.12</v>
-      </c>
-      <c r="C211" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211" t="s">
-        <v>25</v>
-      </c>
-      <c r="F211" t="s">
-        <v>16</v>
-      </c>
-      <c r="G211" t="s">
-        <v>26</v>
-      </c>
-      <c r="H211" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>87</v>
-      </c>
-      <c r="B212">
-        <v>2.69</v>
-      </c>
-      <c r="C212" t="s">
-        <v>138</v>
-      </c>
-      <c r="D212" t="s">
-        <v>24</v>
-      </c>
-      <c r="F212" t="s">
-        <v>16</v>
-      </c>
-      <c r="G212" t="s">
-        <v>93</v>
-      </c>
-      <c r="H212" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>100</v>
-      </c>
-      <c r="B213">
-        <v>1.65</v>
-      </c>
-      <c r="C213" t="s">
-        <v>28</v>
-      </c>
-      <c r="D213" t="s">
-        <v>6</v>
-      </c>
-      <c r="F213" t="s">
-        <v>16</v>
-      </c>
-      <c r="G213" t="s">
-        <v>148</v>
-      </c>
-      <c r="H213" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>75</v>
-      </c>
-      <c r="B214">
-        <v>-0.54</v>
-      </c>
-      <c r="C214" t="s">
-        <v>138</v>
-      </c>
-      <c r="D214" t="s">
-        <v>6</v>
-      </c>
-      <c r="F214" t="s">
-        <v>16</v>
-      </c>
-      <c r="G214" t="s">
-        <v>147</v>
-      </c>
-      <c r="H214" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>27</v>
-      </c>
-      <c r="B215">
-        <v>-0.36</v>
-      </c>
       <c r="C215" t="s">
         <v>28</v>
       </c>
@@ -4617,463 +4635,463 @@
         <v>16</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="H215" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A216" s="2"/>
-      <c r="J216" s="2"/>
-    </row>
-    <row r="217" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>88</v>
+      </c>
+      <c r="B216">
+        <v>5.24</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+      <c r="F216" t="s">
+        <v>16</v>
+      </c>
+      <c r="G216" t="s">
+        <v>94</v>
+      </c>
+      <c r="H216" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>36</v>
+      </c>
+      <c r="B217">
+        <v>0.12</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>25</v>
+      </c>
+      <c r="F217" t="s">
+        <v>16</v>
+      </c>
+      <c r="G217" t="s">
+        <v>26</v>
+      </c>
+      <c r="H217" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="B218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>2.69</v>
+      </c>
+      <c r="C218" t="s">
+        <v>138</v>
+      </c>
+      <c r="D218" t="s">
+        <v>24</v>
+      </c>
+      <c r="F218" t="s">
+        <v>16</v>
+      </c>
+      <c r="G218" t="s">
+        <v>93</v>
+      </c>
+      <c r="H218" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>2</v>
-      </c>
-      <c r="B219" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="B219">
+        <v>1.65</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>6</v>
+      </c>
+      <c r="F219" t="s">
+        <v>16</v>
+      </c>
+      <c r="G219" t="s">
+        <v>148</v>
+      </c>
+      <c r="H219" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>3</v>
-      </c>
-      <c r="B220" t="s">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="B220">
+        <v>-0.54</v>
+      </c>
+      <c r="C220" t="s">
+        <v>138</v>
+      </c>
+      <c r="D220" t="s">
+        <v>6</v>
+      </c>
+      <c r="F220" t="s">
+        <v>16</v>
+      </c>
+      <c r="G220" t="s">
+        <v>147</v>
+      </c>
+      <c r="H220" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>5</v>
-      </c>
-      <c r="B221" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>7</v>
-      </c>
-      <c r="B222" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>9</v>
-      </c>
-      <c r="B223" t="s">
-        <v>105</v>
+        <v>27</v>
+      </c>
+      <c r="B221">
+        <v>-0.36</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>6</v>
+      </c>
+      <c r="F221" t="s">
+        <v>16</v>
+      </c>
+      <c r="G221" t="s">
+        <v>29</v>
+      </c>
+      <c r="H221" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="2"/>
+      <c r="J222" s="2"/>
+    </row>
+    <row r="223" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>19</v>
-      </c>
-      <c r="B224" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
-        <v>10</v>
+      <c r="A225" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
-      </c>
-      <c r="C226" t="s">
-        <v>7</v>
-      </c>
-      <c r="D226" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>5</v>
       </c>
-      <c r="E226" t="s">
-        <v>13</v>
-      </c>
-      <c r="F226" t="s">
-        <v>3</v>
-      </c>
-      <c r="G226" t="s">
-        <v>2</v>
-      </c>
-      <c r="H226" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>103</v>
-      </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-      <c r="C227" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" t="s">
-        <v>6</v>
-      </c>
-      <c r="F227" t="s">
-        <v>15</v>
-      </c>
-      <c r="G227" s="8" t="s">
-        <v>104</v>
+      <c r="B227" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>213</v>
-      </c>
-      <c r="B228">
-        <v>9.9999999999999986E-10</v>
-      </c>
-      <c r="C228" t="s">
-        <v>23</v>
-      </c>
-      <c r="D228" t="s">
-        <v>51</v>
-      </c>
-      <c r="F228" t="s">
-        <v>16</v>
-      </c>
-      <c r="G228" t="s">
-        <v>215</v>
-      </c>
-      <c r="H228" t="s">
-        <v>107</v>
+        <v>7</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>160</v>
-      </c>
-      <c r="B229">
-        <v>1.0000000000000001E-7</v>
-      </c>
-      <c r="C229" t="s">
-        <v>18</v>
-      </c>
-      <c r="D229" t="s">
-        <v>6</v>
-      </c>
-      <c r="F229" t="s">
-        <v>16</v>
-      </c>
-      <c r="G229" t="s">
-        <v>161</v>
-      </c>
-      <c r="H229" t="s">
-        <v>107</v>
+        <v>9</v>
+      </c>
+      <c r="B229" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>44</v>
-      </c>
-      <c r="B230">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C230" t="s">
-        <v>18</v>
-      </c>
-      <c r="D230" t="s">
-        <v>6</v>
-      </c>
-      <c r="F230" t="s">
-        <v>16</v>
-      </c>
-      <c r="G230" t="s">
-        <v>32</v>
-      </c>
-      <c r="H230" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>106</v>
-      </c>
-      <c r="B231">
-        <v>2.9999999999999999E-7</v>
-      </c>
-      <c r="C231" t="s">
-        <v>18</v>
-      </c>
-      <c r="D231" t="s">
-        <v>6</v>
-      </c>
-      <c r="F231" t="s">
-        <v>16</v>
-      </c>
-      <c r="G231" t="s">
-        <v>141</v>
-      </c>
-      <c r="H231" t="s">
-        <v>107</v>
+        <v>19</v>
+      </c>
+      <c r="B230" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>154</v>
-      </c>
-      <c r="B232">
-        <v>3.1999999999999999E-5</v>
+        <v>11</v>
+      </c>
+      <c r="B232" t="s">
+        <v>12</v>
       </c>
       <c r="C232" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="E232" t="s">
+        <v>13</v>
       </c>
       <c r="F232" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G232" t="s">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="H232" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B233">
-        <v>9.9999999999999995E-7</v>
+        <v>1</v>
       </c>
       <c r="C233" t="s">
         <v>8</v>
       </c>
       <c r="D233" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F233" t="s">
-        <v>16</v>
-      </c>
-      <c r="G233" t="s">
-        <v>81</v>
-      </c>
-      <c r="H233" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="B234">
-        <v>1.0400000000000001E-3</v>
+        <v>9.9999999999999986E-10</v>
       </c>
       <c r="C234" t="s">
         <v>23</v>
       </c>
-      <c r="D234" s="10" t="s">
-        <v>6</v>
+      <c r="D234" t="s">
+        <v>51</v>
       </c>
       <c r="F234" t="s">
         <v>16</v>
       </c>
       <c r="G234" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="H234" t="s">
-        <v>113</v>
-      </c>
-      <c r="J234" s="2"/>
+        <v>107</v>
+      </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="B235">
-        <v>1.3000000000000002E-4</v>
+        <v>1.0000000000000001E-7</v>
       </c>
       <c r="C235" t="s">
         <v>18</v>
       </c>
-      <c r="D235" s="10" t="s">
+      <c r="D235" t="s">
         <v>6</v>
       </c>
       <c r="F235" t="s">
         <v>16</v>
       </c>
       <c r="G235" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="H235" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="B236">
-        <v>1.3000000000000002E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C236" t="s">
         <v>18</v>
       </c>
-      <c r="D236" s="10" t="s">
+      <c r="D236" t="s">
         <v>6</v>
       </c>
       <c r="F236" t="s">
         <v>16</v>
       </c>
       <c r="G236" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="H236" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B237">
-        <v>1.1999999999999999E-6</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="C237" t="s">
         <v>18</v>
       </c>
-      <c r="D237" s="10" t="s">
+      <c r="D237" t="s">
         <v>6</v>
       </c>
       <c r="F237" t="s">
         <v>16</v>
       </c>
       <c r="G237" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H237" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="B238">
-        <v>2.5000000000000002E-6</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="C238" t="s">
         <v>18</v>
       </c>
-      <c r="D238" s="10" t="s">
-        <v>6</v>
+      <c r="D238" t="s">
+        <v>24</v>
       </c>
       <c r="F238" t="s">
         <v>16</v>
       </c>
       <c r="G238" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="H238" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="B239">
-        <v>1.8E-3</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C239" t="s">
-        <v>18</v>
-      </c>
-      <c r="D239" s="10" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="D239" t="s">
+        <v>25</v>
       </c>
       <c r="F239" t="s">
         <v>16</v>
       </c>
       <c r="G239" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="H239" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="B240">
-        <v>1.1999999999999999E-4</v>
+        <v>1.0400000000000001E-3</v>
       </c>
       <c r="C240" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F240" t="s">
         <v>16</v>
       </c>
       <c r="G240" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="H240" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J240" s="2"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>112</v>
-      </c>
-      <c r="B241" s="6">
-        <v>8.2000000000000001E-11</v>
+        <v>109</v>
+      </c>
+      <c r="B241">
+        <v>1.3000000000000002E-4</v>
       </c>
       <c r="C241" t="s">
         <v>18</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
       <c r="F241" t="s">
         <v>16</v>
       </c>
       <c r="G241" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="H241" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B242">
-        <v>3.3E-3</v>
+        <v>1.3000000000000002E-4</v>
       </c>
       <c r="C242" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D242" s="10" t="s">
         <v>6</v>
@@ -5082,18 +5100,18 @@
         <v>16</v>
       </c>
       <c r="G242" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H242" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>61</v>
-      </c>
-      <c r="B243" s="2">
-        <v>1.7E-5</v>
+        <v>111</v>
+      </c>
+      <c r="B243">
+        <v>1.1999999999999999E-6</v>
       </c>
       <c r="C243" t="s">
         <v>18</v>
@@ -5105,18 +5123,18 @@
         <v>16</v>
       </c>
       <c r="G243" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H243" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="B244">
-        <v>3.6999999999999998E-5</v>
+        <v>2.5000000000000002E-6</v>
       </c>
       <c r="C244" t="s">
         <v>18</v>
@@ -5128,310 +5146,364 @@
         <v>16</v>
       </c>
       <c r="G244" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="H244" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="B245">
-        <v>4.8E-8</v>
+        <v>1.8E-3</v>
       </c>
       <c r="C245" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F245" t="s">
         <v>16</v>
       </c>
       <c r="G245" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="H245" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="B246">
-        <v>1.9E-6</v>
+        <v>1.1999999999999999E-4</v>
       </c>
       <c r="C246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F246" t="s">
+        <v>16</v>
+      </c>
+      <c r="G246" t="s">
+        <v>38</v>
+      </c>
+      <c r="H246" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>112</v>
+      </c>
+      <c r="B247" s="6">
+        <v>8.2000000000000001E-11</v>
+      </c>
+      <c r="C247" t="s">
         <v>18</v>
       </c>
-      <c r="D246" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F246" t="s">
-        <v>16</v>
-      </c>
-      <c r="G246" t="s">
-        <v>161</v>
-      </c>
-      <c r="H246" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>37</v>
-      </c>
-      <c r="B247">
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="C247" t="s">
-        <v>8</v>
-      </c>
       <c r="D247" s="10" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="F247" t="s">
         <v>16</v>
       </c>
       <c r="G247" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="H247" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>108</v>
+      </c>
+      <c r="B248">
+        <v>3.3E-3</v>
+      </c>
+      <c r="C248" t="s">
+        <v>23</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F248" t="s">
+        <v>16</v>
+      </c>
+      <c r="G248" t="s">
+        <v>139</v>
+      </c>
+      <c r="H248" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>61</v>
+      </c>
+      <c r="B249" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>18</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249" t="s">
+        <v>16</v>
+      </c>
+      <c r="G249" t="s">
+        <v>135</v>
+      </c>
+      <c r="H249" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>44</v>
+      </c>
+      <c r="B250">
+        <v>3.6999999999999998E-5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>18</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F250" t="s">
+        <v>16</v>
+      </c>
+      <c r="G250" t="s">
+        <v>32</v>
+      </c>
+      <c r="H250" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>210</v>
+      </c>
+      <c r="B251">
+        <v>4.8E-8</v>
+      </c>
+      <c r="C251" t="s">
+        <v>23</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F251" t="s">
+        <v>16</v>
+      </c>
+      <c r="G251" t="s">
+        <v>212</v>
+      </c>
+      <c r="H251" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>160</v>
+      </c>
+      <c r="B252">
+        <v>1.9E-6</v>
+      </c>
+      <c r="C252" t="s">
+        <v>18</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F252" t="s">
+        <v>16</v>
+      </c>
+      <c r="G252" t="s">
+        <v>161</v>
+      </c>
+      <c r="H252" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>37</v>
+      </c>
+      <c r="B253">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="C253" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F253" t="s">
+        <v>16</v>
+      </c>
+      <c r="G253" t="s">
+        <v>38</v>
+      </c>
+      <c r="H253" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>80</v>
       </c>
-      <c r="B248">
+      <c r="B254">
         <v>0.11799999999999999</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C254" t="s">
         <v>8</v>
       </c>
-      <c r="D248" s="10" t="s">
+      <c r="D254" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F248" t="s">
-        <v>16</v>
-      </c>
-      <c r="G248" t="s">
+      <c r="F254" t="s">
+        <v>16</v>
+      </c>
+      <c r="G254" t="s">
         <v>81</v>
       </c>
-      <c r="H248" t="s">
+      <c r="H254" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>67</v>
       </c>
-      <c r="B249">
+      <c r="B255">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C255" t="s">
         <v>138</v>
       </c>
-      <c r="D249" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F249" t="s">
-        <v>16</v>
-      </c>
-      <c r="G249" t="s">
+      <c r="D255" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F255" t="s">
+        <v>16</v>
+      </c>
+      <c r="G255" t="s">
         <v>169</v>
       </c>
-      <c r="H249" t="s">
+      <c r="H255" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+    <row r="256" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
         <v>68</v>
       </c>
-      <c r="B250">
+      <c r="B256">
         <v>-2.5999999999999998E-4</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C256" t="s">
         <v>23</v>
       </c>
-      <c r="D250" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F250" t="s">
-        <v>16</v>
-      </c>
-      <c r="G250" t="s">
+      <c r="D256" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F256" t="s">
+        <v>16</v>
+      </c>
+      <c r="G256" t="s">
         <v>168</v>
       </c>
-      <c r="H250" t="s">
+      <c r="H256" t="s">
         <v>79</v>
       </c>
-      <c r="J250" s="2"/>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+      <c r="J256" s="2"/>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
         <v>116</v>
       </c>
-      <c r="B251">
+      <c r="B257">
         <v>-1.9999999999999999E-6</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C257" t="s">
         <v>138</v>
       </c>
-      <c r="D251" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F251" t="s">
-        <v>16</v>
-      </c>
-      <c r="G251" t="s">
+      <c r="D257" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F257" t="s">
+        <v>16</v>
+      </c>
+      <c r="G257" t="s">
         <v>159</v>
       </c>
-      <c r="H251" t="s">
+      <c r="H257" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
         <v>117</v>
       </c>
-      <c r="B252">
+      <c r="B258">
         <v>-2.7999999999999999E-6</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C258" t="s">
         <v>23</v>
       </c>
-      <c r="D252" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F252" t="s">
-        <v>16</v>
-      </c>
-      <c r="G252" t="s">
+      <c r="D258" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F258" t="s">
+        <v>16</v>
+      </c>
+      <c r="G258" t="s">
         <v>145</v>
       </c>
-      <c r="H252" t="s">
+      <c r="H258" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
         <v>118</v>
       </c>
-      <c r="B253">
+      <c r="B259">
         <v>-1.1999999999999999E-6</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C259" t="s">
         <v>138</v>
       </c>
-      <c r="D253" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F253" t="s">
-        <v>16</v>
-      </c>
-      <c r="G253" t="s">
+      <c r="D259" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F259" t="s">
+        <v>16</v>
+      </c>
+      <c r="G259" t="s">
         <v>144</v>
       </c>
-      <c r="H253" t="s">
+      <c r="H259" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A256" s="15" t="s">
+    <row r="262" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A262" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B256" s="15" t="s">
+      <c r="B262" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="K256" s="17"/>
-      <c r="L256" s="17"/>
-      <c r="M256" s="17"/>
-      <c r="N256" s="17"/>
-      <c r="O256" s="17"/>
-      <c r="P256" s="17"/>
-    </row>
-    <row r="257" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A257" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B257" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K257" s="17"/>
-      <c r="L257" s="17"/>
-      <c r="M257" s="17"/>
-      <c r="N257" s="17"/>
-      <c r="O257" s="17"/>
-      <c r="P257" s="17"/>
-    </row>
-    <row r="258" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B258" s="16">
-        <v>1</v>
-      </c>
-      <c r="K258" s="17"/>
-      <c r="L258" s="17"/>
-      <c r="M258" s="17"/>
-      <c r="N258" s="17"/>
-      <c r="O258" s="17"/>
-      <c r="P258" s="17"/>
-    </row>
-    <row r="259" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A259" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B259" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="K259" s="17"/>
-      <c r="L259" s="17"/>
-      <c r="M259" s="17"/>
-      <c r="N259" s="17"/>
-      <c r="O259" s="17"/>
-      <c r="P259" s="17"/>
-    </row>
-    <row r="260" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A260" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B260" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K260" s="17"/>
-      <c r="L260" s="17"/>
-      <c r="M260" s="17"/>
-      <c r="N260" s="17"/>
-      <c r="O260" s="17"/>
-      <c r="P260" s="17"/>
-    </row>
-    <row r="261" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A261" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B261" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K261" s="17"/>
-      <c r="L261" s="17"/>
-      <c r="M261" s="17"/>
-      <c r="N261" s="17"/>
-      <c r="O261" s="17"/>
-      <c r="P261" s="17"/>
-    </row>
-    <row r="262" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B262" s="16" t="s">
-        <v>184</v>
       </c>
       <c r="K262" s="17"/>
       <c r="L262" s="17"/>
@@ -5442,10 +5514,10 @@
     </row>
     <row r="263" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B263" s="18">
-        <v>0.61363636363636365</v>
+        <v>7</v>
+      </c>
+      <c r="B263" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="K263" s="17"/>
       <c r="L263" s="17"/>
@@ -5455,8 +5527,11 @@
       <c r="P263" s="17"/>
     </row>
     <row r="264" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="15" t="s">
-        <v>10</v>
+      <c r="A264" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B264" s="16">
+        <v>1</v>
       </c>
       <c r="K264" s="17"/>
       <c r="L264" s="17"/>
@@ -5466,88 +5541,25 @@
       <c r="P264" s="17"/>
     </row>
     <row r="265" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A265" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B265" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E265" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F265" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G265" s="15" t="s">
+      <c r="A265" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H265" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I265" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="J265" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K265" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="L265" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="M265" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="N265" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="O265" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="P265" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q265" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="R265" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="S265" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="T265" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="B265" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="K265" s="17"/>
+      <c r="L265" s="17"/>
+      <c r="M265" s="17"/>
+      <c r="N265" s="17"/>
+      <c r="O265" s="17"/>
+      <c r="P265" s="17"/>
     </row>
     <row r="266" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B266" s="16">
-        <v>1</v>
-      </c>
-      <c r="C266" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D266" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F266" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G266" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="H266" s="16" t="s">
-        <v>198</v>
+        <v>3</v>
+      </c>
+      <c r="B266" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="K266" s="17"/>
       <c r="L266" s="17"/>
@@ -5555,334 +5567,178 @@
       <c r="N266" s="17"/>
       <c r="O266" s="17"/>
       <c r="P266" s="17"/>
-      <c r="T266" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="267" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B267" s="20">
-        <v>6.7613636363636362E-2</v>
-      </c>
-      <c r="D267" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E267" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F267" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H267" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="I267" s="16">
-        <v>2</v>
-      </c>
-      <c r="J267">
-        <v>-2.6939455949206681</v>
-      </c>
-      <c r="K267" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L267" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M267" s="4">
-        <v>1</v>
-      </c>
-      <c r="N267" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O267" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P267" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q267" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="R267">
-        <v>0.16679850853156178</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K267" s="17"/>
+      <c r="L267" s="17"/>
+      <c r="M267" s="17"/>
+      <c r="N267" s="17"/>
+      <c r="O267" s="17"/>
+      <c r="P267" s="17"/>
     </row>
     <row r="268" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B268" s="20">
-        <v>0.10738636363636363</v>
-      </c>
-      <c r="D268" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E268" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F268" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H268" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="I268" s="16">
-        <v>2</v>
-      </c>
-      <c r="J268">
-        <v>-2.2313220729725551</v>
-      </c>
-      <c r="K268" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L268" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M268" s="4">
-        <v>1</v>
-      </c>
-      <c r="N268" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O268" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P268" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q268" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="R268">
-        <v>0.16679850853156178</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B268" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="K268" s="17"/>
+      <c r="L268" s="17"/>
+      <c r="M268" s="17"/>
+      <c r="N268" s="17"/>
+      <c r="O268" s="17"/>
+      <c r="P268" s="17"/>
     </row>
     <row r="269" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="B269" s="21">
-        <v>1E-4</v>
-      </c>
-      <c r="D269" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E269" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F269" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I269" s="16">
+        <v>184</v>
+      </c>
+      <c r="B269" s="18">
+        <v>0.61363636363636365</v>
+      </c>
+      <c r="K269" s="17"/>
+      <c r="L269" s="17"/>
+      <c r="M269" s="17"/>
+      <c r="N269" s="17"/>
+      <c r="O269" s="17"/>
+      <c r="P269" s="17"/>
+    </row>
+    <row r="270" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A270" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K270" s="17"/>
+      <c r="L270" s="17"/>
+      <c r="M270" s="17"/>
+      <c r="N270" s="17"/>
+      <c r="O270" s="17"/>
+      <c r="P270" s="17"/>
+    </row>
+    <row r="271" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A271" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E271" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F271" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G271" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J269">
-        <v>-9.2103403719761818</v>
-      </c>
-      <c r="K269" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L269" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M269" s="4">
-        <v>1</v>
-      </c>
-      <c r="N269" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O269" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P269" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q269" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="R269">
-        <v>0.26139455023340635</v>
-      </c>
-    </row>
-    <row r="270" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B270" s="16">
-        <v>9.6600000000000002E-3</v>
-      </c>
-      <c r="C270" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D270" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F270" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G270" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I270" s="16">
-        <v>2</v>
-      </c>
-      <c r="J270">
-        <v>-4.6397616307577101</v>
-      </c>
-      <c r="K270" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L270" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M270" s="4">
-        <v>1</v>
-      </c>
-      <c r="N270" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O270" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P270" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q270">
-        <v>1.05</v>
-      </c>
-      <c r="R270">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="271" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B271" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="C271" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D271" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F271" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G271" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I271" s="16">
-        <v>2</v>
-      </c>
-      <c r="J271">
-        <v>-2.3025850929940455</v>
-      </c>
-      <c r="K271" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L271" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M271" s="4">
-        <v>1</v>
-      </c>
-      <c r="N271" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O271" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P271" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q271">
-        <v>1.05</v>
-      </c>
-      <c r="R271">
-        <v>0.16679850853156178</v>
+      <c r="H271" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I271" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K271" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L271" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M271" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="N271" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="O271" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="P271" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q271" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R271" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S271" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="T271" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="272" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="16" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B272" s="16">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C272" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="16" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F272" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G272" s="16" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="H272" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="I272" s="16">
-        <v>2</v>
-      </c>
-      <c r="J272">
-        <v>0.40546510810816438</v>
-      </c>
-      <c r="K272" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L272" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="M272" s="4">
-        <v>1</v>
-      </c>
-      <c r="N272" s="4">
-        <v>1.01</v>
-      </c>
-      <c r="O272" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P272" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q272">
-        <v>1.05</v>
-      </c>
-      <c r="R272">
-        <v>0.16679850853156178</v>
-      </c>
-    </row>
-    <row r="273" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="K272" s="17"/>
+      <c r="L272" s="17"/>
+      <c r="M272" s="17"/>
+      <c r="N272" s="17"/>
+      <c r="O272" s="17"/>
+      <c r="P272" s="17"/>
+      <c r="T272" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B273" s="16">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C273" s="16" t="s">
-        <v>18</v>
+        <v>199</v>
+      </c>
+      <c r="B273" s="20">
+        <v>6.7613636363636362E-2</v>
       </c>
       <c r="D273" s="16" t="s">
         <v>6</v>
       </c>
+      <c r="E273" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="F273" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G273" s="16" t="s">
-        <v>149</v>
+        <v>21</v>
+      </c>
+      <c r="H273" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="I273" s="16">
         <v>2</v>
       </c>
       <c r="J273">
-        <v>-5.521460917862246</v>
+        <v>-2.6939455949206681</v>
       </c>
       <c r="K273" s="4">
         <v>1.1000000000000001</v>
@@ -5902,37 +5758,37 @@
       <c r="P273" s="4">
         <v>1.2</v>
       </c>
-      <c r="Q273">
+      <c r="Q273" s="4">
         <v>1.05</v>
       </c>
       <c r="R273">
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="274" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B274" s="16">
-        <v>1E-4</v>
-      </c>
-      <c r="C274" s="16" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="B274" s="20">
+        <v>0.10738636363636363</v>
       </c>
       <c r="D274" s="16" t="s">
         <v>6</v>
       </c>
+      <c r="E274" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="F274" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G274" s="16" t="s">
-        <v>150</v>
+        <v>21</v>
+      </c>
+      <c r="H274" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="I274" s="16">
         <v>2</v>
       </c>
       <c r="J274">
-        <v>-9.2103403719761818</v>
+        <v>-2.2313220729725551</v>
       </c>
       <c r="K274" s="4">
         <v>1.1000000000000001</v>
@@ -5952,31 +5808,28 @@
       <c r="P274" s="4">
         <v>1.2</v>
       </c>
-      <c r="Q274">
+      <c r="Q274" s="4">
         <v>1.05</v>
       </c>
       <c r="R274">
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="275" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="B275" s="16">
+        <v>201</v>
+      </c>
+      <c r="B275" s="21">
         <v>1E-4</v>
       </c>
-      <c r="C275" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="D275" s="16" t="s">
         <v>6</v>
       </c>
+      <c r="E275" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="F275" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G275" s="16" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="I275" s="16">
         <v>2</v>
@@ -6002,521 +5855,828 @@
       <c r="P275" s="4">
         <v>1.2</v>
       </c>
-      <c r="Q275">
+      <c r="Q275" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="R275">
+        <v>0.26139455023340635</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A276" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B276" s="16">
+        <v>9.6600000000000002E-3</v>
+      </c>
+      <c r="C276" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D276" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F276" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G276" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I276" s="16">
+        <v>2</v>
+      </c>
+      <c r="J276">
+        <v>-4.6397616307577101</v>
+      </c>
+      <c r="K276" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L276" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M276" s="4">
+        <v>1</v>
+      </c>
+      <c r="N276" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="O276" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P276" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q276">
         <v>1.05</v>
       </c>
-      <c r="R275">
+      <c r="R276">
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="276" spans="1:20" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K276" s="17"/>
-      <c r="L276" s="17"/>
-      <c r="M276" s="17"/>
-      <c r="N276" s="17"/>
-      <c r="O276" s="17"/>
-      <c r="P276" s="17"/>
-    </row>
-    <row r="277" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
+    <row r="277" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A277" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B277" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="C277" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D277" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F277" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G277" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I277" s="16">
+        <v>2</v>
+      </c>
+      <c r="J277">
+        <v>-2.3025850929940455</v>
+      </c>
+      <c r="K277" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L277" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M277" s="4">
+        <v>1</v>
+      </c>
+      <c r="N277" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="O277" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P277" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q277">
+        <v>1.05</v>
+      </c>
+      <c r="R277">
+        <v>0.16679850853156178</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A278" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B278" s="16">
+        <f>0.4+((3.7-0.4)*0.4)</f>
+        <v>1.7200000000000002</v>
+      </c>
+      <c r="C278" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D278" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F278" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G278" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H278" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I278" s="16">
+        <v>2</v>
+      </c>
+      <c r="J278">
+        <v>0.40546510810816438</v>
+      </c>
+      <c r="K278" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L278" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M278" s="4">
+        <v>1</v>
+      </c>
+      <c r="N278" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="O278" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P278" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q278">
+        <v>1.05</v>
+      </c>
+      <c r="R278">
+        <v>0.16679850853156178</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A279" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B279" s="16">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C279" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D279" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F279" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G279" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="I279" s="16">
+        <v>2</v>
+      </c>
+      <c r="J279">
+        <v>-5.521460917862246</v>
+      </c>
+      <c r="K279" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L279" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M279" s="4">
+        <v>1</v>
+      </c>
+      <c r="N279" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="O279" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P279" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q279">
+        <v>1.05</v>
+      </c>
+      <c r="R279">
+        <v>0.16679850853156178</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A280" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B280" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="C280" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D280" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F280" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G280" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="I280" s="16">
+        <v>2</v>
+      </c>
+      <c r="J280">
+        <v>-9.2103403719761818</v>
+      </c>
+      <c r="K280" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L280" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M280" s="4">
+        <v>1</v>
+      </c>
+      <c r="N280" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="O280" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P280" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q280">
+        <v>1.05</v>
+      </c>
+      <c r="R280">
+        <v>0.16679850853156178</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A281" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B281" s="16">
+        <v>1E-4</v>
+      </c>
+      <c r="C281" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D281" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F281" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G281" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="I281" s="16">
+        <v>2</v>
+      </c>
+      <c r="J281">
+        <v>-9.2103403719761818</v>
+      </c>
+      <c r="K281" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L281" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M281" s="4">
+        <v>1</v>
+      </c>
+      <c r="N281" s="4">
+        <v>1.01</v>
+      </c>
+      <c r="O281" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P281" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q281">
+        <v>1.05</v>
+      </c>
+      <c r="R281">
+        <v>0.16679850853156178</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K282" s="17"/>
+      <c r="L282" s="17"/>
+      <c r="M282" s="17"/>
+      <c r="N282" s="17"/>
+      <c r="O282" s="17"/>
+      <c r="P282" s="17"/>
+    </row>
+    <row r="283" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B277" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+      <c r="B283" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
         <v>7</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B284" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A279" s="2" t="s">
+    <row r="285" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B279">
+      <c r="B285">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
         <v>2</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B286" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
         <v>3</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B287" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
         <v>5</v>
       </c>
-      <c r="B282" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>19</v>
-      </c>
-      <c r="B283" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>9</v>
-      </c>
-      <c r="B284" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>185</v>
-      </c>
-      <c r="B285">
-        <v>5.8751529987760093E-2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>211</v>
-      </c>
-      <c r="B286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="288" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A288" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C288" t="s">
-        <v>7</v>
-      </c>
-      <c r="D288" t="s">
-        <v>5</v>
-      </c>
-      <c r="E288" t="s">
-        <v>13</v>
-      </c>
-      <c r="F288" t="s">
-        <v>3</v>
-      </c>
-      <c r="G288" t="s">
-        <v>2</v>
-      </c>
-      <c r="H288" t="s">
-        <v>9</v>
-      </c>
-      <c r="I288" t="s">
-        <v>186</v>
-      </c>
-      <c r="J288" t="s">
-        <v>187</v>
-      </c>
-      <c r="K288" t="s">
-        <v>188</v>
-      </c>
-      <c r="L288" t="s">
-        <v>189</v>
-      </c>
-      <c r="M288" t="s">
-        <v>190</v>
-      </c>
-      <c r="N288" t="s">
-        <v>191</v>
-      </c>
-      <c r="O288" t="s">
-        <v>192</v>
-      </c>
-      <c r="P288" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q288" t="s">
-        <v>194</v>
-      </c>
-      <c r="R288" t="s">
-        <v>195</v>
-      </c>
-      <c r="S288" t="s">
-        <v>196</v>
-      </c>
-      <c r="T288" t="s">
-        <v>197</v>
+      <c r="B288" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>208</v>
-      </c>
-      <c r="B289">
-        <v>1</v>
-      </c>
-      <c r="C289" t="s">
-        <v>8</v>
-      </c>
-      <c r="D289" t="s">
-        <v>6</v>
-      </c>
-      <c r="F289" t="s">
-        <v>15</v>
-      </c>
-      <c r="G289" t="s">
-        <v>183</v>
-      </c>
-      <c r="T289" t="s">
-        <v>199</v>
+        <v>19</v>
+      </c>
+      <c r="B289" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="290" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>200</v>
-      </c>
-      <c r="B290">
-        <v>0.10353733170134639</v>
-      </c>
-      <c r="D290" t="s">
-        <v>6</v>
-      </c>
-      <c r="E290" t="s">
-        <v>89</v>
-      </c>
-      <c r="F290" t="s">
-        <v>21</v>
-      </c>
-      <c r="H290" t="s">
-        <v>212</v>
-      </c>
-      <c r="I290">
-        <v>2</v>
-      </c>
-      <c r="J290">
-        <v>-2.2678230385440798</v>
-      </c>
-      <c r="K290">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L290">
-        <v>1.2</v>
-      </c>
-      <c r="M290">
-        <v>1</v>
-      </c>
-      <c r="N290">
-        <v>1.01</v>
-      </c>
-      <c r="O290">
-        <v>1.2</v>
-      </c>
-      <c r="P290">
-        <v>1.2</v>
-      </c>
-      <c r="Q290">
-        <v>1.05</v>
-      </c>
-      <c r="R290">
-        <v>0.16679850853156178</v>
+        <v>9</v>
+      </c>
+      <c r="B290" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="291" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="B291">
-        <v>6.4626682986536101E-3</v>
-      </c>
-      <c r="D291" t="s">
-        <v>6</v>
-      </c>
-      <c r="E291" t="s">
-        <v>89</v>
-      </c>
-      <c r="F291" t="s">
-        <v>21</v>
-      </c>
-      <c r="H291" t="s">
-        <v>212</v>
-      </c>
-      <c r="I291">
-        <v>2</v>
-      </c>
-      <c r="J291">
-        <v>-5.0417129971418326</v>
-      </c>
-      <c r="K291">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L291">
-        <v>1.2</v>
-      </c>
-      <c r="M291">
-        <v>1</v>
-      </c>
-      <c r="N291">
-        <v>1.01</v>
-      </c>
-      <c r="O291">
-        <v>1.2</v>
-      </c>
-      <c r="P291">
-        <v>1.2</v>
-      </c>
-      <c r="Q291">
-        <v>1.05</v>
-      </c>
-      <c r="R291">
-        <v>0.16679850853156178</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="292" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="B292">
-        <v>9.6600000000000002E-3</v>
-      </c>
-      <c r="C292" t="s">
-        <v>138</v>
-      </c>
-      <c r="D292" t="s">
-        <v>6</v>
-      </c>
-      <c r="F292" t="s">
-        <v>16</v>
-      </c>
-      <c r="G292" t="s">
-        <v>34</v>
-      </c>
-      <c r="I292">
-        <v>2</v>
-      </c>
-      <c r="J292">
-        <v>-4.6397616307577101</v>
-      </c>
-      <c r="K292">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L292">
-        <v>1.2</v>
-      </c>
-      <c r="M292">
         <v>1</v>
-      </c>
-      <c r="N292">
-        <v>1.01</v>
-      </c>
-      <c r="O292">
-        <v>1.2</v>
-      </c>
-      <c r="P292">
-        <v>1.2</v>
-      </c>
-      <c r="Q292">
-        <v>1.05</v>
-      </c>
-      <c r="R292">
-        <v>0.16679850853156178</v>
       </c>
     </row>
     <row r="293" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C294" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" t="s">
+        <v>5</v>
+      </c>
+      <c r="E294" t="s">
+        <v>13</v>
+      </c>
+      <c r="F294" t="s">
+        <v>3</v>
+      </c>
+      <c r="G294" t="s">
+        <v>2</v>
+      </c>
+      <c r="H294" t="s">
+        <v>9</v>
+      </c>
+      <c r="I294" t="s">
+        <v>185</v>
+      </c>
+      <c r="J294" t="s">
+        <v>186</v>
+      </c>
+      <c r="K294" t="s">
+        <v>187</v>
+      </c>
+      <c r="L294" t="s">
+        <v>188</v>
+      </c>
+      <c r="M294" t="s">
+        <v>189</v>
+      </c>
+      <c r="N294" t="s">
+        <v>190</v>
+      </c>
+      <c r="O294" t="s">
+        <v>191</v>
+      </c>
+      <c r="P294" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>193</v>
+      </c>
+      <c r="R294" t="s">
+        <v>194</v>
+      </c>
+      <c r="S294" t="s">
+        <v>195</v>
+      </c>
+      <c r="T294" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>206</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" t="s">
+        <v>6</v>
+      </c>
+      <c r="F295" t="s">
+        <v>15</v>
+      </c>
+      <c r="G295" t="s">
+        <v>183</v>
+      </c>
+      <c r="T295" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>199</v>
+      </c>
+      <c r="B296">
+        <f>0.11*(1-B291)</f>
+        <v>0.10339999999999999</v>
+      </c>
+      <c r="D296" t="s">
+        <v>6</v>
+      </c>
+      <c r="E296" t="s">
+        <v>89</v>
+      </c>
+      <c r="F296" t="s">
+        <v>21</v>
+      </c>
+      <c r="H296" t="s">
+        <v>209</v>
+      </c>
+      <c r="I296">
+        <v>2</v>
+      </c>
+      <c r="J296">
+        <v>-2.2678230385440798</v>
+      </c>
+      <c r="K296">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L296">
+        <v>1.2</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+      <c r="N296">
+        <v>1.01</v>
+      </c>
+      <c r="O296">
+        <v>1.2</v>
+      </c>
+      <c r="P296">
+        <v>1.2</v>
+      </c>
+      <c r="Q296">
+        <v>1.05</v>
+      </c>
+      <c r="R296">
+        <v>0.16679850853156178</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>40</v>
+      </c>
+      <c r="B297">
+        <f>0.11-B296</f>
+        <v>6.6000000000000086E-3</v>
+      </c>
+      <c r="D297" t="s">
+        <v>6</v>
+      </c>
+      <c r="E297" t="s">
+        <v>89</v>
+      </c>
+      <c r="F297" t="s">
+        <v>21</v>
+      </c>
+      <c r="H297" t="s">
+        <v>209</v>
+      </c>
+      <c r="I297">
+        <v>2</v>
+      </c>
+      <c r="J297">
+        <v>-5.0417129971418326</v>
+      </c>
+      <c r="K297">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L297">
+        <v>1.2</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297">
+        <v>1.01</v>
+      </c>
+      <c r="O297">
+        <v>1.2</v>
+      </c>
+      <c r="P297">
+        <v>1.2</v>
+      </c>
+      <c r="Q297">
+        <v>1.05</v>
+      </c>
+      <c r="R297">
+        <v>0.16679850853156178</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>33</v>
+      </c>
+      <c r="B298">
+        <v>9.6600000000000002E-3</v>
+      </c>
+      <c r="C298" t="s">
+        <v>138</v>
+      </c>
+      <c r="D298" t="s">
+        <v>6</v>
+      </c>
+      <c r="F298" t="s">
+        <v>16</v>
+      </c>
+      <c r="G298" t="s">
+        <v>34</v>
+      </c>
+      <c r="I298">
+        <v>2</v>
+      </c>
+      <c r="J298">
+        <v>-4.6397616307577101</v>
+      </c>
+      <c r="K298">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L298">
+        <v>1.2</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+      <c r="N298">
+        <v>1.01</v>
+      </c>
+      <c r="O298">
+        <v>1.2</v>
+      </c>
+      <c r="P298">
+        <v>1.2</v>
+      </c>
+      <c r="Q298">
+        <v>1.05</v>
+      </c>
+      <c r="R298">
+        <v>0.16679850853156178</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
         <v>36</v>
       </c>
-      <c r="B293">
+      <c r="B299">
         <v>6.9000000000000008E-3</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C299" t="s">
         <v>8</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D299" t="s">
         <v>25</v>
       </c>
-      <c r="F293" t="s">
-        <v>16</v>
-      </c>
-      <c r="G293" t="s">
+      <c r="F299" t="s">
+        <v>16</v>
+      </c>
+      <c r="G299" t="s">
         <v>26</v>
       </c>
-      <c r="I293">
+      <c r="I299">
         <v>2</v>
       </c>
-      <c r="J293">
+      <c r="J299">
         <v>-4.976233867378923</v>
       </c>
-      <c r="K293">
+      <c r="K299">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L293">
+      <c r="L299">
         <v>1.2</v>
       </c>
-      <c r="M293">
+      <c r="M299">
         <v>1</v>
       </c>
-      <c r="N293">
+      <c r="N299">
         <v>1.01</v>
       </c>
-      <c r="O293">
+      <c r="O299">
         <v>1.2</v>
       </c>
-      <c r="P293">
+      <c r="P299">
         <v>1.2</v>
       </c>
-      <c r="Q293">
+      <c r="Q299">
         <v>1.05</v>
       </c>
-      <c r="R293">
+      <c r="R299">
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>202</v>
+      </c>
+      <c r="B300">
+        <f>3.66*0.7</f>
+        <v>2.5619999999999998</v>
+      </c>
+      <c r="C300" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" t="s">
+        <v>24</v>
+      </c>
+      <c r="F300" t="s">
+        <v>16</v>
+      </c>
+      <c r="G300" t="s">
         <v>203</v>
       </c>
-      <c r="B294">
-        <v>2.7084000000000001</v>
-      </c>
-      <c r="C294" t="s">
-        <v>8</v>
-      </c>
-      <c r="D294" t="s">
-        <v>24</v>
-      </c>
-      <c r="F294" t="s">
-        <v>16</v>
-      </c>
-      <c r="G294" t="s">
-        <v>204</v>
-      </c>
-      <c r="I294">
+      <c r="I300">
         <v>2</v>
       </c>
-      <c r="J294">
+      <c r="J300">
         <v>0.99635805462935334</v>
       </c>
-      <c r="K294">
+      <c r="K300">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L294">
+      <c r="L300">
         <v>1.2</v>
       </c>
-      <c r="M294">
+      <c r="M300">
         <v>1</v>
       </c>
-      <c r="N294">
+      <c r="N300">
         <v>1.01</v>
       </c>
-      <c r="O294">
+      <c r="O300">
         <v>1.2</v>
       </c>
-      <c r="P294">
+      <c r="P300">
         <v>1.2</v>
       </c>
-      <c r="Q294">
+      <c r="Q300">
         <v>1.05</v>
       </c>
-      <c r="R294">
+      <c r="R300">
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="22" t="s">
+    <row r="301" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B295">
-        <v>1E-3</v>
-      </c>
-      <c r="C295" t="s">
+      <c r="B301">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C301" t="s">
         <v>18</v>
       </c>
-      <c r="D295" t="s">
-        <v>6</v>
-      </c>
-      <c r="F295" t="s">
-        <v>16</v>
-      </c>
-      <c r="G295" t="s">
+      <c r="D301" t="s">
+        <v>6</v>
+      </c>
+      <c r="F301" t="s">
+        <v>16</v>
+      </c>
+      <c r="G301" t="s">
         <v>149</v>
       </c>
-      <c r="I295">
+      <c r="I301">
         <v>2</v>
       </c>
-      <c r="J295">
+      <c r="J301">
         <v>-6.9077552789821368</v>
       </c>
-      <c r="K295">
+      <c r="K301">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L295">
+      <c r="L301">
         <v>1.2</v>
       </c>
-      <c r="M295">
+      <c r="M301">
         <v>1</v>
       </c>
-      <c r="N295">
+      <c r="N301">
         <v>1.01</v>
       </c>
-      <c r="O295">
+      <c r="O301">
         <v>1.2</v>
       </c>
-      <c r="P295">
+      <c r="P301">
         <v>1.2</v>
       </c>
-      <c r="Q295">
+      <c r="Q301">
         <v>1.05</v>
       </c>
-      <c r="R295">
+      <c r="R301">
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A301" s="1"/>
-      <c r="B301" s="1"/>
-    </row>
-    <row r="308" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A308" s="1"/>
-    </row>
-    <row r="315" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A315" s="1"/>
-      <c r="B315" s="1"/>
-    </row>
-    <row r="317" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B317" s="2"/>
-    </row>
-    <row r="322" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A322" s="1"/>
-    </row>
-    <row r="324" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A324" s="2"/>
-      <c r="J324" s="2"/>
+    <row r="307" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+    </row>
+    <row r="314" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A314" s="1"/>
+    </row>
+    <row r="321" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+    </row>
+    <row r="323" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B323" s="2"/>
+    </row>
+    <row r="328" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A328" s="1"/>
     </row>
     <row r="330" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-    </row>
-    <row r="337" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A337" s="1"/>
+      <c r="A330" s="2"/>
+      <c r="J330" s="2"/>
+    </row>
+    <row r="336" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+    </row>
+    <row r="343" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A343" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T337" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T343" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D415D5-20A1-8348-8410-7999E2D72DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6F1CAA-B366-124C-987A-6B2C9F87ED9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31960" yWindow="60" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$361</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="265">
   <si>
     <t>Activity</t>
   </si>
@@ -744,6 +744,96 @@
   </si>
   <si>
     <t>operation. Uncertainty from deJong et al., 2021</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at cement production plant, using monoethanolamine</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at cement plant</t>
+  </si>
+  <si>
+    <t>Carbon capture using MEA: Main source: Voldsund (2019) - CEMCAP - D4.6 CEMCAP comparative techno-economic analysis. Heat for MEA regeneration now produced with same fuel mix as MEA kiln (not natural gas as in Voldsund). Transport and storage from Premise inventories. 90% CO2 capture efficiency (process+fuel CO2). Source: Amelie Müller, Carina Harpprecht, Romain Sacchi, Ben Maes, Mariësse van Sluisveld, Vassilis Daioglou, Branko Šavija, Bernhard Steubing, Decarbonizing the cement industry: Findings from coupling prospective life cycle assessment of clinker with integrated assessment model scenarios, Journal of Cleaner Production, 2024, https://doi.org/10.1016/j.jclepro.2024.141884.</t>
+  </si>
+  <si>
+    <t>MEA mark-up, lost in reclaimer (1.4 kg MEA/tCO2) CEMCAP - D4.6 CEMCAP comparative techno-economic analysis, p. 26</t>
+  </si>
+  <si>
+    <t>Electricity consumption for fans, pumps and thermal reclaimer (188 MJ/tclk [primary energy], 761 kg CO2/tclk, 0.459 conversion factor primary to secondary energy, 3.6 MJ/kWh) CEMCAP - D4.6 CEMCAP comparative techno-economic analysis, Table 5.3</t>
+  </si>
+  <si>
+    <t>Electricity consumption for cooling water system (123 MJ/tclk [primary energy], 761 kg CO2/tclk, 0.459 conversion factor primary to secondary energy, 3.6 MJ/kWh) CEMCAP - D4.6 CEMCAP comparative techno-economic analysis, Table 5.3</t>
+  </si>
+  <si>
+    <t>market group for tap water</t>
+  </si>
+  <si>
+    <t>Process water mark-up. CEMCAP - D4.6 CEMCAP comparative techno-economic analysis, Table 5.1</t>
+  </si>
+  <si>
+    <t>Spent MEA solvent: Share of airborne emission and solid emissions from Moser 2011</t>
+  </si>
+  <si>
+    <t>Monoethanolamine</t>
+  </si>
+  <si>
+    <t>MEA emissions, rest is regenerated. Share of airborne emission and solid emissions (process: treatment of spent solvent mixture) from Moser 2011</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Steam for MEA regeneration (3.76 MJ/kg CO2, of which 0.11 can be recuberated from waste heat).</t>
+  </si>
+  <si>
+    <t>steam production, as energy carrier, in chemical industry</t>
+  </si>
+  <si>
+    <t>carbon dioxide storage from hard coal, post, pipeline 200km, storage 1000m</t>
+  </si>
+  <si>
+    <t>Amelie Müller, Carina Harpprecht, Romain Sacchi, Ben Maes, Mariësse van Sluisveld, Vassilis Daioglou, Branko Šavija, Bernhard Steubing, Decarbonizing the cement industry: Findings from coupling prospective life cycle assessment of clinker with integrated assessment model scenarios, Journal of Cleaner Production, 2024, https://doi.org/10.1016/j.jclepro.2024.141884.</t>
+  </si>
+  <si>
+    <t>Energy needed for compression and liquefication of CO2 (CPU): (CEMCAP D4.6, table 5.3)</t>
+  </si>
+  <si>
+    <t>SOx removal, needed so that MEA doesn't form amine salts. Stochiometric amount of 1.25 kg NaOH/kg SOx is sufficient (Cempcap 4.6). 0.00035 kg SOx/kg clinker (ecoinvent), 0.828 kg CO2/kg clinker from GCCA data.</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at cement production plant, using direct separation</t>
+  </si>
+  <si>
+    <t>Carbon capture using Direct Separation. Main source: LEILAC project https://ec.europa.eu/research/participants/documents/downloadPublic?documentIds=080166e5df29e8fc&amp;appId=PPGMS. 95% capture efficiency of process related emissions.  Source: Amelie Müller, Carina Harpprecht, Romain Sacchi, Ben Maes, Mariësse van Sluisveld, Vassilis Daioglou, Branko Šavija, Bernhard Steubing, Decarbonizing the cement industry: Findings from coupling prospective life cycle assessment of clinker with integrated assessment model scenarios, Journal of Cleaner Production, 2024, https://doi.org/10.1016/j.jclepro.2024.141884.</t>
+  </si>
+  <si>
+    <t>Additional electricity for LEILAC: LEILAC D3.6 Life Cycle Assessment, Table 4-6: 77kWh/t clinker, Table 4-1: 0.558 t process emissions/t clinker</t>
+  </si>
+  <si>
+    <t>carbon dioxide, captured at cement production plant, using oxyfuel</t>
+  </si>
+  <si>
+    <t>Carbon capture with Oxyfuel technology, where fuel combustion happens in Oxygen-CO2-mix instead of air, which creates a cleaner CO2 flue gas stream. Main source: Voldsund (2019) - CEMCAP - D4.6 CEMCAP comparative techno-economic analysis. 90% CO2 capture efficiency (process+fuel CO2). Includes changes in electricity demand due to new kiln design for oxy-process, oxygen production with ASU, CO2 compression and purification, CO2 transport. Excludes changes in Non-CO2 emissions: CPU reduces SOx (99.99%), NOx (99.36%), Hg (100%) and CO (100%). Source: Amelie Müller, Carina Harpprecht, Romain Sacchi, Ben Maes, Mariësse van Sluisveld, Vassilis Daioglou, Branko Šavija, Bernhard Steubing, Decarbonizing the cement industry: Findings from coupling prospective life cycle assessment of clinker with integrated assessment model scenarios, Journal of Cleaner Production, 2024, https://doi.org/10.1016/j.jclepro.2024.141884.</t>
+  </si>
+  <si>
+    <t>stochiometric amount of O2 needed for combustion with pure oxygen. 11% losses due flue gas looping are already included in the ASU process</t>
+  </si>
+  <si>
+    <t>Electricity savings due to equipment changes: additional fans +122 MJ/tclk , electric power generation -182 MJ/tclk with organic rankine cycle, energy savings at Fans, milling, and handling of solids in kiln -62 MJ/tclk, [all in primary energy], 758 kg CO2/tclk, Conversion factor primary to secondary energy 0.459, 3.6 MJ/kWh. Voldsund (2019) - CEMCAP - D4.6 CEMCAP comparative techno-economic analysis, Table 6.3</t>
+  </si>
+  <si>
+    <t>Electricity consumption cooling water system. 59 MJ/tclk [primary energy], 758 kg CO2/tclk, Conversion factor primary to secondary energy 0.459, 3.6 MJ/kWh. Voldsund (2019) - CEMCAP - D4.6 CEMCAP comparative techno-economic analysis, Table 6.3</t>
+  </si>
+  <si>
+    <t>Compression and purification: Electricity for CPU (440 KJ/kgCO2) (CEMCAP D4.6, table 6.1)</t>
+  </si>
+  <si>
+    <t>industrial gases production, cryogenic air separation</t>
+  </si>
+  <si>
+    <t>oxygen, liquid</t>
+  </si>
+  <si>
+    <t>Compression and purification unit: Electricity for cooling system (0.03 KJ/kg CO2) (CEMCAP D4.6, table 6.1)</t>
   </si>
 </sst>
 </file>
@@ -757,9 +847,9 @@
     <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="0.000"/>
     <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,6 +931,22 @@
       <sz val="12"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -863,7 +969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -889,10 +995,16 @@
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1208,19 +1320,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T366"/>
+  <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="C377" sqref="C377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.5" customWidth="1"/>
+    <col min="1" max="1" width="47.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -1518,7 +1630,7 @@
       <c r="A19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <f>-1*B17</f>
         <v>-4.0000000000000001E-3</v>
       </c>
@@ -1542,7 +1654,7 @@
       <c r="A20" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <f>-1*B18</f>
         <v>-3.5000000000000001E-3</v>
       </c>
@@ -1932,7 +2044,7 @@
       <c r="A41" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="24">
         <f>-1*B39</f>
         <v>-4.0000000000000001E-3</v>
       </c>
@@ -1956,7 +2068,7 @@
       <c r="A42" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <f>-1*B40</f>
         <v>-3.5000000000000001E-3</v>
       </c>
@@ -3114,7 +3226,7 @@
       <c r="I111">
         <v>5</v>
       </c>
-      <c r="J111" s="24">
+      <c r="J111" s="23">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="K111">
@@ -3352,7 +3464,7 @@
       <c r="A125" t="s">
         <v>19</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3705,7 +3817,7 @@
       <c r="A144" t="s">
         <v>19</v>
       </c>
-      <c r="B144" s="23" t="s">
+      <c r="B144" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4346,7 +4458,7 @@
       <c r="A179" t="s">
         <v>19</v>
       </c>
-      <c r="B179" s="23" t="s">
+      <c r="B179" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4875,7 +4987,7 @@
         <v>93</v>
       </c>
       <c r="B217">
-        <f>AVERAGE(K217:L217)</f>
+        <f t="shared" ref="B217:B227" si="0">AVERAGE(K217:L217)</f>
         <v>1.9749999999999999</v>
       </c>
       <c r="C217" t="s">
@@ -4909,7 +5021,7 @@
         <v>85</v>
       </c>
       <c r="B218">
-        <f>AVERAGE(K218:L218)</f>
+        <f t="shared" si="0"/>
         <v>3.1749999999999998</v>
       </c>
       <c r="C218" t="s">
@@ -4928,7 +5040,7 @@
         <v>5</v>
       </c>
       <c r="J218">
-        <f t="shared" ref="J218:J227" si="0">B218</f>
+        <f t="shared" ref="J218:J227" si="1">B218</f>
         <v>3.1749999999999998</v>
       </c>
       <c r="K218">
@@ -4943,7 +5055,7 @@
         <v>94</v>
       </c>
       <c r="B219">
-        <f>AVERAGE(K219:L219)</f>
+        <f t="shared" si="0"/>
         <v>2.59</v>
       </c>
       <c r="C219" t="s">
@@ -4962,7 +5074,7 @@
         <v>5</v>
       </c>
       <c r="J219">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.59</v>
       </c>
       <c r="K219">
@@ -4977,7 +5089,7 @@
         <v>95</v>
       </c>
       <c r="B220">
-        <f>AVERAGE(K220:L220)</f>
+        <f t="shared" si="0"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="C220" t="s">
@@ -4996,7 +5108,7 @@
         <v>5</v>
       </c>
       <c r="J220">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="K220">
@@ -5011,7 +5123,7 @@
         <v>94</v>
       </c>
       <c r="B221">
-        <f>AVERAGE(K221:L221)</f>
+        <f t="shared" si="0"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="C221" t="s">
@@ -5030,7 +5142,7 @@
         <v>5</v>
       </c>
       <c r="J221">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="K221">
@@ -5045,7 +5157,7 @@
         <v>96</v>
       </c>
       <c r="B222">
-        <f>AVERAGE(K222:L222)</f>
+        <f t="shared" si="0"/>
         <v>0.11570000000000008</v>
       </c>
       <c r="C222" t="s">
@@ -5067,7 +5179,7 @@
         <v>5</v>
       </c>
       <c r="J222">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11570000000000008</v>
       </c>
       <c r="K222">
@@ -5084,7 +5196,7 @@
         <v>97</v>
       </c>
       <c r="B223">
-        <f>AVERAGE(K223:L223)</f>
+        <f t="shared" si="0"/>
         <v>1.3817000000000013</v>
       </c>
       <c r="C223" t="s">
@@ -5106,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="J223">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3817000000000013</v>
       </c>
       <c r="K223">
@@ -5123,7 +5235,7 @@
         <v>87</v>
       </c>
       <c r="B224">
-        <f>AVERAGE(K224:L224)</f>
+        <f t="shared" si="0"/>
         <v>14.559999999999999</v>
       </c>
       <c r="C224" t="s">
@@ -5142,7 +5254,7 @@
         <v>5</v>
       </c>
       <c r="J224">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.559999999999999</v>
       </c>
       <c r="K224">
@@ -5157,7 +5269,7 @@
         <v>35</v>
       </c>
       <c r="B225">
-        <f>AVERAGE(K225:L225)</f>
+        <f t="shared" si="0"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="C225" t="s">
@@ -5176,7 +5288,7 @@
         <v>5</v>
       </c>
       <c r="J225">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="K225">
@@ -5191,7 +5303,7 @@
         <v>86</v>
       </c>
       <c r="B226">
-        <f>AVERAGE(K226:L226)</f>
+        <f t="shared" si="0"/>
         <v>7.4749999999999996</v>
       </c>
       <c r="C226" t="s">
@@ -5210,7 +5322,7 @@
         <v>5</v>
       </c>
       <c r="J226">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4749999999999996</v>
       </c>
       <c r="K226">
@@ -5225,7 +5337,7 @@
         <v>74</v>
       </c>
       <c r="B227">
-        <f>AVERAGE(K227:L227)</f>
+        <f t="shared" si="0"/>
         <v>-1.5</v>
       </c>
       <c r="C227" t="s">
@@ -5244,7 +5356,7 @@
         <v>5</v>
       </c>
       <c r="J227">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.5</v>
       </c>
       <c r="K227">
@@ -7181,7 +7293,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -7231,7 +7343,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>35</v>
       </c>
@@ -7281,7 +7393,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>195</v>
       </c>
@@ -7332,7 +7444,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="324" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="21" t="s">
         <v>93</v>
       </c>
@@ -7382,36 +7494,845 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="330" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A330" s="1"/>
-      <c r="B330" s="1"/>
-    </row>
-    <row r="337" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A337" s="1"/>
-    </row>
-    <row r="344" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A344" s="1"/>
-      <c r="B344" s="1"/>
-    </row>
-    <row r="346" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B346" s="2"/>
-    </row>
-    <row r="351" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A351" s="1"/>
-    </row>
-    <row r="353" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A353" s="2"/>
-      <c r="J353" s="2"/>
-    </row>
-    <row r="359" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A359" s="1"/>
-      <c r="B359" s="1"/>
-    </row>
-    <row r="366" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A366" s="1"/>
+    <row r="326" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>7</v>
+      </c>
+      <c r="B327" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>2</v>
+      </c>
+      <c r="B329" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>3</v>
+      </c>
+      <c r="B330" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>19</v>
+      </c>
+      <c r="B332" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G335" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H335" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I335" s="5"/>
+      <c r="J335" s="5"/>
+      <c r="K335" s="5"/>
+      <c r="L335" s="5"/>
+      <c r="M335" s="5"/>
+      <c r="N335" s="5"/>
+      <c r="O335" s="5"/>
+      <c r="P335" s="5"/>
+      <c r="Q335" s="5"/>
+      <c r="R335" s="5"/>
+      <c r="S335" s="5"/>
+    </row>
+    <row r="336" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="28" t="str">
+        <f>B326</f>
+        <v>carbon dioxide, captured at cement production plant, using monoethanolamine</v>
+      </c>
+      <c r="B336" s="28">
+        <v>1</v>
+      </c>
+      <c r="C336" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F336" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G336" s="28" t="str">
+        <f>B329</f>
+        <v>carbon dioxide, captured at cement plant</v>
+      </c>
+    </row>
+    <row r="337" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B337" s="29">
+        <v>1</v>
+      </c>
+      <c r="C337" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F337" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G337" s="28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A338" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B338" s="29">
+        <f>1.4/1000</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="C338" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D338" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F338" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G338" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="H338" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="N338" s="29"/>
+    </row>
+    <row r="339" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B339" s="29">
+        <f>0.000355*1.25*(1/0.828)</f>
+        <v>5.3592995169082129E-4</v>
+      </c>
+      <c r="C339" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D339" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F339" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G339" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="H339" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="N339" s="29"/>
+      <c r="P339" s="29"/>
+    </row>
+    <row r="340" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B340" s="29">
+        <f>(3.76-0.11)/0.9</f>
+        <v>4.0555555555555554</v>
+      </c>
+      <c r="C340" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D340" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F340" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G340" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H340" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="N340" s="29"/>
+    </row>
+    <row r="341" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B341" s="29">
+        <f>188/761*0.459/3.6</f>
+        <v>3.1498028909329831E-2</v>
+      </c>
+      <c r="C341" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F341" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G341" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H341" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="N341" s="29"/>
+    </row>
+    <row r="342" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B342" s="29">
+        <f>123/761*0.459/3.6</f>
+        <v>2.0607752956636003E-2</v>
+      </c>
+      <c r="C342" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F342" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G342" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H342" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="N342" s="29"/>
+    </row>
+    <row r="343" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B343" s="29">
+        <f>575/761*0.459/3.6</f>
+        <v>9.63370565045992E-2</v>
+      </c>
+      <c r="C343" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D343" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F343" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G343" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H343" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="N343" s="29"/>
+      <c r="Q343" s="30"/>
+    </row>
+    <row r="344" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B344" s="29">
+        <f>0.473</f>
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="C344" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D344" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F344" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G344" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H344" s="28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="345" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B345" s="29">
+        <f>-B338*0.227/(0.227+0.006)</f>
+        <v>-1.3639484978540772E-3</v>
+      </c>
+      <c r="C345" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D345" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F345" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G345" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H345" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="346" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B346" s="29">
+        <f>1.4/1000*(0.006/0.227+0.006)</f>
+        <v>4.5404405286343617E-5</v>
+      </c>
+      <c r="D346" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E346" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F346" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H346" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B347" s="29">
+        <f>B344/1000</f>
+        <v>4.7299999999999995E-4</v>
+      </c>
+      <c r="D347" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E347" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F347" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G347" s="29"/>
+    </row>
+    <row r="349" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>7</v>
+      </c>
+      <c r="B350" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A351" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>2</v>
+      </c>
+      <c r="B352" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>3</v>
+      </c>
+      <c r="B353" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>5</v>
+      </c>
+      <c r="B354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>19</v>
+      </c>
+      <c r="B355" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D358" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E358" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G358" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H358" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I358" s="5"/>
+      <c r="J358" s="5"/>
+      <c r="K358" s="5"/>
+      <c r="L358" s="5"/>
+      <c r="M358" s="5"/>
+      <c r="N358" s="5"/>
+      <c r="O358" s="5"/>
+      <c r="P358" s="5"/>
+      <c r="Q358" s="5"/>
+      <c r="R358" s="5"/>
+      <c r="S358" s="5"/>
+    </row>
+    <row r="359" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="28" t="str">
+        <f>B349</f>
+        <v>carbon dioxide, captured at cement production plant, using direct separation</v>
+      </c>
+      <c r="B359" s="28">
+        <v>1</v>
+      </c>
+      <c r="C359" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D359" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F359" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G359" s="28" t="str">
+        <f>B352</f>
+        <v>carbon dioxide, captured at cement plant</v>
+      </c>
+    </row>
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A360" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B360" s="29">
+        <v>1</v>
+      </c>
+      <c r="C360" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D360" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E360" s="28"/>
+      <c r="F360" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G360" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="H360" s="28"/>
+    </row>
+    <row r="361" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B361" s="32">
+        <f>77*1/0.558/1000</f>
+        <v>0.13799283154121864</v>
+      </c>
+      <c r="C361" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D361" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F361" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G361" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H361" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="N361" s="32"/>
+    </row>
+    <row r="364" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B364" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>7</v>
+      </c>
+      <c r="B365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>2</v>
+      </c>
+      <c r="B367" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>3</v>
+      </c>
+      <c r="B368" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>5</v>
+      </c>
+      <c r="B369" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>19</v>
+      </c>
+      <c r="B370" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D373" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G373" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H373" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I373" s="5"/>
+      <c r="J373" s="5"/>
+      <c r="K373" s="5"/>
+      <c r="L373" s="5"/>
+      <c r="M373" s="5"/>
+      <c r="N373" s="5"/>
+      <c r="O373" s="5"/>
+      <c r="P373" s="5"/>
+      <c r="Q373" s="5"/>
+      <c r="R373" s="5"/>
+      <c r="S373" s="5"/>
+    </row>
+    <row r="374" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="28" t="str">
+        <f>B364</f>
+        <v>carbon dioxide, captured at cement production plant, using oxyfuel</v>
+      </c>
+      <c r="B374" s="28">
+        <v>1</v>
+      </c>
+      <c r="C374" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D374" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F374" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G374" s="28" t="str">
+        <f>B367</f>
+        <v>carbon dioxide, captured at cement plant</v>
+      </c>
+    </row>
+    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A375" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B375" s="29">
+        <v>1</v>
+      </c>
+      <c r="C375" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D375" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E375" s="28"/>
+      <c r="F375" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G375" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="H375" s="28"/>
+    </row>
+    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>262</v>
+      </c>
+      <c r="B376" s="6">
+        <f>B374*32/44/(1-0.11)</f>
+        <v>0.81716036772216549</v>
+      </c>
+      <c r="C376" t="s">
+        <v>27</v>
+      </c>
+      <c r="D376" t="s">
+        <v>6</v>
+      </c>
+      <c r="F376" t="s">
+        <v>16</v>
+      </c>
+      <c r="G376" t="s">
+        <v>263</v>
+      </c>
+      <c r="H376" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="377" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>35</v>
+      </c>
+      <c r="B377" s="6">
+        <f>(122-182-62)/758*0.459/3.6</f>
+        <v>-2.0521108179419524E-2</v>
+      </c>
+      <c r="C377" t="s">
+        <v>8</v>
+      </c>
+      <c r="D377" t="s">
+        <v>24</v>
+      </c>
+      <c r="F377" t="s">
+        <v>16</v>
+      </c>
+      <c r="G377" t="s">
+        <v>25</v>
+      </c>
+      <c r="H377" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="378" spans="1:19" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>35</v>
+      </c>
+      <c r="B378" s="6">
+        <f>59/758*0.459/3.6</f>
+        <v>9.9241424802110813E-3</v>
+      </c>
+      <c r="C378" t="s">
+        <v>8</v>
+      </c>
+      <c r="D378" t="s">
+        <v>24</v>
+      </c>
+      <c r="F378" t="s">
+        <v>16</v>
+      </c>
+      <c r="G378" t="s">
+        <v>25</v>
+      </c>
+      <c r="H378" s="26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="379" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>35</v>
+      </c>
+      <c r="B379" s="6">
+        <f>440/3600</f>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="C379" t="s">
+        <v>8</v>
+      </c>
+      <c r="D379" t="s">
+        <v>24</v>
+      </c>
+      <c r="F379" t="s">
+        <v>16</v>
+      </c>
+      <c r="G379" t="s">
+        <v>25</v>
+      </c>
+      <c r="H379" t="s">
+        <v>261</v>
+      </c>
+      <c r="M379" s="27"/>
+      <c r="N379" s="31"/>
+    </row>
+    <row r="380" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>35</v>
+      </c>
+      <c r="B380" s="6">
+        <f>0.03/3600</f>
+        <v>8.3333333333333337E-6</v>
+      </c>
+      <c r="C380" t="s">
+        <v>8</v>
+      </c>
+      <c r="D380" t="s">
+        <v>24</v>
+      </c>
+      <c r="F380" t="s">
+        <v>16</v>
+      </c>
+      <c r="G380" t="s">
+        <v>25</v>
+      </c>
+      <c r="H380" t="s">
+        <v>264</v>
+      </c>
+      <c r="M380" s="27"/>
+      <c r="N380" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T366" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T361" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6F1CAA-B366-124C-987A-6B2C9F87ED9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7720B-EE07-6440-A054-D25BE9CE7E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
@@ -1322,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="C377" sqref="C377"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="B364" sqref="B364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7720B-EE07-6440-A054-D25BE9CE7E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824ACB91-3647-0446-8B1F-8A1BDD01002C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -841,13 +841,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0E+00"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -967,13 +967,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -983,27 +983,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1322,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="B364" sqref="B364"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5127,7 +5127,7 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D221" t="s">
         <v>6</v>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824ACB91-3647-0446-8B1F-8A1BDD01002C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080B30BA-B161-3B46-B804-43A28BD59505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -782,9 +782,6 @@
     <t>Water</t>
   </si>
   <si>
-    <t>Steam for MEA regeneration (3.76 MJ/kg CO2, of which 0.11 can be recuberated from waste heat).</t>
-  </si>
-  <si>
     <t>steam production, as energy carrier, in chemical industry</t>
   </si>
   <si>
@@ -834,6 +831,9 @@
   </si>
   <si>
     <t>Compression and purification unit: Electricity for cooling system (0.03 KJ/kg CO2) (CEMCAP D4.6, table 6.1)</t>
+  </si>
+  <si>
+    <t>Steam for MEA regeneration (3.76 MJ/kg CO2, of which 0.11 can be recuperated from waste heat).</t>
   </si>
 </sst>
 </file>
@@ -1322,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="H341" sqref="H341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7547,7 +7547,7 @@
         <v>19</v>
       </c>
       <c r="B332" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.2">
@@ -7624,7 +7624,7 @@
     </row>
     <row r="337" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B337" s="29">
         <v>1</v>
@@ -7639,7 +7639,7 @@
         <v>16</v>
       </c>
       <c r="G337" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="338" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -7688,18 +7688,18 @@
         <v>146</v>
       </c>
       <c r="H339" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N339" s="29"/>
       <c r="P339" s="29"/>
     </row>
     <row r="340" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B340" s="29">
-        <f>(3.76-0.11)/0.9</f>
-        <v>4.0555555555555554</v>
+        <f>3.76-0.11</f>
+        <v>3.65</v>
       </c>
       <c r="C340" s="28" t="s">
         <v>8</v>
@@ -7714,7 +7714,7 @@
         <v>196</v>
       </c>
       <c r="H340" s="28" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="N340" s="29"/>
     </row>
@@ -7789,7 +7789,7 @@
         <v>25</v>
       </c>
       <c r="H343" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N343" s="29"/>
       <c r="Q343" s="30"/>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.2">
@@ -7935,7 +7935,7 @@
         <v>19</v>
       </c>
       <c r="B355" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.2">
@@ -7943,7 +7943,7 @@
         <v>9</v>
       </c>
       <c r="B356" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.2">
@@ -8012,7 +8012,7 @@
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B360" s="29">
         <v>1</v>
@@ -8028,7 +8028,7 @@
         <v>16</v>
       </c>
       <c r="G360" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H360" s="28"/>
     </row>
@@ -8053,7 +8053,7 @@
         <v>25</v>
       </c>
       <c r="H361" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N361" s="32"/>
     </row>
@@ -8062,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.2">
@@ -8110,7 +8110,7 @@
         <v>19</v>
       </c>
       <c r="B370" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.2">
@@ -8118,7 +8118,7 @@
         <v>9</v>
       </c>
       <c r="B371" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.2">
@@ -8187,7 +8187,7 @@
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B375" s="29">
         <v>1</v>
@@ -8203,13 +8203,13 @@
         <v>16</v>
       </c>
       <c r="G375" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H375" s="28"/>
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B376" s="6">
         <f>B374*32/44/(1-0.11)</f>
@@ -8225,10 +8225,10 @@
         <v>16</v>
       </c>
       <c r="G376" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H376" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.2">
@@ -8252,7 +8252,7 @@
         <v>25</v>
       </c>
       <c r="H377" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="378" spans="1:19" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8276,7 +8276,7 @@
         <v>25</v>
       </c>
       <c r="H378" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.2">
@@ -8300,7 +8300,7 @@
         <v>25</v>
       </c>
       <c r="H379" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M379" s="27"/>
       <c r="N379" s="31"/>
@@ -8326,7 +8326,7 @@
         <v>25</v>
       </c>
       <c r="H380" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M380" s="27"/>
       <c r="N380" s="31"/>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080B30BA-B161-3B46-B804-43A28BD59505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846C32FD-FF81-8E44-A374-EC8B073AB5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="264">
   <si>
     <t>Activity</t>
   </si>
@@ -780,9 +780,6 @@
   </si>
   <si>
     <t>Water</t>
-  </si>
-  <si>
-    <t>steam production, as energy carrier, in chemical industry</t>
   </si>
   <si>
     <t>carbon dioxide storage from hard coal, post, pipeline 200km, storage 1000m</t>
@@ -1323,7 +1320,7 @@
   <dimension ref="A1:T380"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="H341" sqref="H341"/>
+      <selection activeCell="C341" sqref="C341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7547,7 +7544,7 @@
         <v>19</v>
       </c>
       <c r="B332" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.2">
@@ -7624,7 +7621,7 @@
     </row>
     <row r="337" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B337" s="29">
         <v>1</v>
@@ -7639,7 +7636,7 @@
         <v>16</v>
       </c>
       <c r="G337" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="338" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -7688,21 +7685,21 @@
         <v>146</v>
       </c>
       <c r="H339" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N339" s="29"/>
       <c r="P339" s="29"/>
     </row>
     <row r="340" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="28" t="s">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="B340" s="29">
         <f>3.76-0.11</f>
         <v>3.65</v>
       </c>
       <c r="C340" s="28" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D340" s="28" t="s">
         <v>23</v>
@@ -7711,10 +7708,10 @@
         <v>16</v>
       </c>
       <c r="G340" s="28" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="H340" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N340" s="29"/>
     </row>
@@ -7789,7 +7786,7 @@
         <v>25</v>
       </c>
       <c r="H343" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N343" s="29"/>
       <c r="Q343" s="30"/>
@@ -7887,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.2">
@@ -7935,7 +7932,7 @@
         <v>19</v>
       </c>
       <c r="B355" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.2">
@@ -7943,7 +7940,7 @@
         <v>9</v>
       </c>
       <c r="B356" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.2">
@@ -8012,7 +8009,7 @@
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B360" s="29">
         <v>1</v>
@@ -8028,7 +8025,7 @@
         <v>16</v>
       </c>
       <c r="G360" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H360" s="28"/>
     </row>
@@ -8053,7 +8050,7 @@
         <v>25</v>
       </c>
       <c r="H361" s="26" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N361" s="32"/>
     </row>
@@ -8062,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.2">
@@ -8110,7 +8107,7 @@
         <v>19</v>
       </c>
       <c r="B370" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.2">
@@ -8118,7 +8115,7 @@
         <v>9</v>
       </c>
       <c r="B371" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.2">
@@ -8187,7 +8184,7 @@
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B375" s="29">
         <v>1</v>
@@ -8203,13 +8200,13 @@
         <v>16</v>
       </c>
       <c r="G375" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H375" s="28"/>
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B376" s="6">
         <f>B374*32/44/(1-0.11)</f>
@@ -8225,10 +8222,10 @@
         <v>16</v>
       </c>
       <c r="G376" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H376" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.2">
@@ -8252,7 +8249,7 @@
         <v>25</v>
       </c>
       <c r="H377" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="378" spans="1:19" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8276,7 +8273,7 @@
         <v>25</v>
       </c>
       <c r="H378" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.2">
@@ -8300,7 +8297,7 @@
         <v>25</v>
       </c>
       <c r="H379" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M379" s="27"/>
       <c r="N379" s="31"/>
@@ -8326,7 +8323,7 @@
         <v>25</v>
       </c>
       <c r="H380" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M380" s="27"/>
       <c r="N380" s="31"/>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846C32FD-FF81-8E44-A374-EC8B073AB5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6A6A71-CEDA-7C4D-9077-A8B121F05FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -830,7 +830,7 @@
     <t>Compression and purification unit: Electricity for cooling system (0.03 KJ/kg CO2) (CEMCAP D4.6, table 6.1)</t>
   </si>
   <si>
-    <t>Steam for MEA regeneration (3.76 MJ/kg CO2, of which 0.11 can be recuperated from waste heat).</t>
+    <t>Steam for MEA regeneration (3.76 MJ/kg CO2, of which 15% can be recuperated from waste heat, according to https://www.globalccsinstitute.com/wp-content/uploads/2022/05/State-of-the-Art-CCS-Technologies-2022.pdf).</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:T380"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="C341" sqref="C341"/>
+      <selection activeCell="D316" sqref="D316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7695,8 +7695,8 @@
         <v>81</v>
       </c>
       <c r="B340" s="29">
-        <f>3.76-0.11</f>
-        <v>3.65</v>
+        <f>3.76-(1-0.15)</f>
+        <v>2.9099999999999997</v>
       </c>
       <c r="C340" s="28" t="s">
         <v>135</v>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6A6A71-CEDA-7C4D-9077-A8B121F05FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117179F3-9F44-FA47-BEFB-6FE597996E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="265">
   <si>
     <t>Activity</t>
   </si>
@@ -782,6 +782,12 @@
     <t>Water</t>
   </si>
   <si>
+    <t>Steam for MEA regeneration (3.76 MJ/kg CO2, of which 0.11 can be recuberated from waste heat).</t>
+  </si>
+  <si>
+    <t>steam production, as energy carrier, in chemical industry</t>
+  </si>
+  <si>
     <t>carbon dioxide storage from hard coal, post, pipeline 200km, storage 1000m</t>
   </si>
   <si>
@@ -821,16 +827,13 @@
     <t>Compression and purification: Electricity for CPU (440 KJ/kgCO2) (CEMCAP D4.6, table 6.1)</t>
   </si>
   <si>
-    <t>industrial gases production, cryogenic air separation</t>
-  </si>
-  <si>
     <t>oxygen, liquid</t>
   </si>
   <si>
     <t>Compression and purification unit: Electricity for cooling system (0.03 KJ/kg CO2) (CEMCAP D4.6, table 6.1)</t>
   </si>
   <si>
-    <t>Steam for MEA regeneration (3.76 MJ/kg CO2, of which 15% can be recuperated from waste heat, according to https://www.globalccsinstitute.com/wp-content/uploads/2022/05/State-of-the-Art-CCS-Technologies-2022.pdf).</t>
+    <t>market for oxygen, liquid</t>
   </si>
 </sst>
 </file>
@@ -838,13 +841,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -964,13 +967,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -980,27 +983,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1319,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="D316" sqref="D316"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="G376" sqref="G376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7544,7 +7547,7 @@
         <v>19</v>
       </c>
       <c r="B332" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.2">
@@ -7621,7 +7624,7 @@
     </row>
     <row r="337" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B337" s="29">
         <v>1</v>
@@ -7636,7 +7639,7 @@
         <v>16</v>
       </c>
       <c r="G337" s="28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="338" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -7685,21 +7688,21 @@
         <v>146</v>
       </c>
       <c r="H339" s="28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N339" s="29"/>
       <c r="P339" s="29"/>
     </row>
     <row r="340" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="28" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="B340" s="29">
-        <f>3.76-(1-0.15)</f>
-        <v>2.9099999999999997</v>
+        <f>(3.76-0.11)/0.9</f>
+        <v>4.0555555555555554</v>
       </c>
       <c r="C340" s="28" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
       <c r="D340" s="28" t="s">
         <v>23</v>
@@ -7708,10 +7711,10 @@
         <v>16</v>
       </c>
       <c r="G340" s="28" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="H340" s="28" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="N340" s="29"/>
     </row>
@@ -7786,7 +7789,7 @@
         <v>25</v>
       </c>
       <c r="H343" s="28" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N343" s="29"/>
       <c r="Q343" s="30"/>
@@ -7884,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.2">
@@ -7932,7 +7935,7 @@
         <v>19</v>
       </c>
       <c r="B355" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.2">
@@ -7940,7 +7943,7 @@
         <v>9</v>
       </c>
       <c r="B356" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.2">
@@ -8009,7 +8012,7 @@
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360" s="28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B360" s="29">
         <v>1</v>
@@ -8025,7 +8028,7 @@
         <v>16</v>
       </c>
       <c r="G360" s="28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H360" s="28"/>
     </row>
@@ -8050,7 +8053,7 @@
         <v>25</v>
       </c>
       <c r="H361" s="26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N361" s="32"/>
     </row>
@@ -8059,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.2">
@@ -8107,7 +8110,7 @@
         <v>19</v>
       </c>
       <c r="B370" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.2">
@@ -8115,7 +8118,7 @@
         <v>9</v>
       </c>
       <c r="B371" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.2">
@@ -8184,7 +8187,7 @@
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375" s="28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B375" s="29">
         <v>1</v>
@@ -8200,13 +8203,13 @@
         <v>16</v>
       </c>
       <c r="G375" s="28" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H375" s="28"/>
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B376" s="6">
         <f>B374*32/44/(1-0.11)</f>
@@ -8222,10 +8225,10 @@
         <v>16</v>
       </c>
       <c r="G376" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H376" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.2">
@@ -8249,7 +8252,7 @@
         <v>25</v>
       </c>
       <c r="H377" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="378" spans="1:19" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8273,7 +8276,7 @@
         <v>25</v>
       </c>
       <c r="H378" s="26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.2">
@@ -8297,7 +8300,7 @@
         <v>25</v>
       </c>
       <c r="H379" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M379" s="27"/>
       <c r="N379" s="31"/>
@@ -8323,7 +8326,7 @@
         <v>25</v>
       </c>
       <c r="H380" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M380" s="27"/>
       <c r="N380" s="31"/>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117179F3-9F44-FA47-BEFB-6FE597996E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBD57E1-8C1E-404D-AAB1-028A6C86991D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="264">
   <si>
     <t>Activity</t>
   </si>
@@ -783,9 +783,6 @@
   </si>
   <si>
     <t>Steam for MEA regeneration (3.76 MJ/kg CO2, of which 0.11 can be recuberated from waste heat).</t>
-  </si>
-  <si>
-    <t>steam production, as energy carrier, in chemical industry</t>
   </si>
   <si>
     <t>carbon dioxide storage from hard coal, post, pipeline 200km, storage 1000m</t>
@@ -841,13 +838,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0E+00"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -967,13 +964,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -983,27 +980,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1322,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="G376" sqref="G376"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="G341" sqref="G341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7547,7 +7544,7 @@
         <v>19</v>
       </c>
       <c r="B332" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.2">
@@ -7624,7 +7621,7 @@
     </row>
     <row r="337" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A337" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B337" s="29">
         <v>1</v>
@@ -7639,7 +7636,7 @@
         <v>16</v>
       </c>
       <c r="G337" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="338" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -7688,21 +7685,21 @@
         <v>146</v>
       </c>
       <c r="H339" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N339" s="29"/>
       <c r="P339" s="29"/>
     </row>
     <row r="340" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A340" s="28" t="s">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="B340" s="29">
         <f>(3.76-0.11)/0.9</f>
         <v>4.0555555555555554</v>
       </c>
       <c r="C340" s="28" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D340" s="28" t="s">
         <v>23</v>
@@ -7711,7 +7708,7 @@
         <v>16</v>
       </c>
       <c r="G340" s="28" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="H340" s="28" t="s">
         <v>247</v>
@@ -7789,7 +7786,7 @@
         <v>25</v>
       </c>
       <c r="H343" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N343" s="29"/>
       <c r="Q343" s="30"/>
@@ -7887,7 +7884,7 @@
         <v>0</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.2">
@@ -7935,7 +7932,7 @@
         <v>19</v>
       </c>
       <c r="B355" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="356" spans="1:19" x14ac:dyDescent="0.2">
@@ -7943,7 +7940,7 @@
         <v>9</v>
       </c>
       <c r="B356" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="357" spans="1:19" x14ac:dyDescent="0.2">
@@ -8012,7 +8009,7 @@
     </row>
     <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B360" s="29">
         <v>1</v>
@@ -8028,7 +8025,7 @@
         <v>16</v>
       </c>
       <c r="G360" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H360" s="28"/>
     </row>
@@ -8053,7 +8050,7 @@
         <v>25</v>
       </c>
       <c r="H361" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N361" s="32"/>
     </row>
@@ -8062,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="365" spans="1:19" x14ac:dyDescent="0.2">
@@ -8110,7 +8107,7 @@
         <v>19</v>
       </c>
       <c r="B370" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="371" spans="1:19" x14ac:dyDescent="0.2">
@@ -8118,7 +8115,7 @@
         <v>9</v>
       </c>
       <c r="B371" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="372" spans="1:19" x14ac:dyDescent="0.2">
@@ -8187,7 +8184,7 @@
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A375" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B375" s="29">
         <v>1</v>
@@ -8203,13 +8200,13 @@
         <v>16</v>
       </c>
       <c r="G375" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H375" s="28"/>
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B376" s="6">
         <f>B374*32/44/(1-0.11)</f>
@@ -8225,10 +8222,10 @@
         <v>16</v>
       </c>
       <c r="G376" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H376" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.2">
@@ -8252,7 +8249,7 @@
         <v>25</v>
       </c>
       <c r="H377" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="378" spans="1:19" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8276,7 +8273,7 @@
         <v>25</v>
       </c>
       <c r="H378" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.2">
@@ -8300,7 +8297,7 @@
         <v>25</v>
       </c>
       <c r="H379" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M379" s="27"/>
       <c r="N379" s="31"/>
@@ -8326,7 +8323,7 @@
         <v>25</v>
       </c>
       <c r="H380" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M380" s="27"/>
       <c r="N380" s="31"/>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBD57E1-8C1E-404D-AAB1-028A6C86991D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4250949B-9023-E24C-A5C7-1864AA2E9D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,13 +838,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -964,13 +964,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -980,27 +980,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1319,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="G341" sqref="G341"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="B377" sqref="B377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/premise/data/additional_inventories/lci-carbon-capture.xlsx
+++ b/premise/data/additional_inventories/lci-carbon-capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117179F3-9F44-FA47-BEFB-6FE597996E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63415C3E-A3E4-3949-93D8-B41F32435F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="DAC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$361</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DAC!$A$1:$T$380</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="264">
   <si>
     <t>Activity</t>
   </si>
@@ -783,9 +783,6 @@
   </si>
   <si>
     <t>Steam for MEA regeneration (3.76 MJ/kg CO2, of which 0.11 can be recuberated from waste heat).</t>
-  </si>
-  <si>
-    <t>steam production, as energy carrier, in chemical industry</t>
   </si>
   <si>
     <t>carbon dioxide storage from hard coal, post, pipeline 200km, storage 1000m</t>
@@ -1320,10 +1317,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="G376" sqref="G376"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J361" sqref="J361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1341,7 +1339,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1349,10 +1347,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1358,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1368,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1376,7 +1374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +1382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1392,7 +1390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1400,7 +1398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1416,12 +1414,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1458,8 +1456,11 @@
       <c r="L12" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>6.6666666666666669E-11</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1544,20 +1545,23 @@
       <c r="I15">
         <v>5</v>
       </c>
-      <c r="J15" s="6">
-        <f>B15</f>
+      <c r="J15">
+        <f>-1/(1000000000*20)</f>
         <v>-5.0000000000000002E-11</v>
       </c>
       <c r="K15" s="6">
+        <f>-1/(1000000000*15)</f>
+        <v>-6.6666666666666669E-11</v>
+      </c>
+      <c r="L15" s="6">
         <f>-1/(1000000000*25)</f>
         <v>-3.9999999999999998E-11</v>
       </c>
-      <c r="L15" s="6">
-        <f>-1/(1000000000*15)</f>
-        <v>-6.6666666666666669E-11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>172</v>
       </c>
@@ -1626,7 +1630,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1650,7 +1654,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>81</v>
       </c>
@@ -1746,7 +1750,7 @@
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1766,7 +1770,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1774,7 +1779,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1782,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1790,7 +1795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1798,7 +1803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1806,7 +1811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1822,7 +1827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -1830,12 +1835,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
@@ -1872,8 +1877,11 @@
       <c r="L34" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -1893,7 +1901,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -1932,7 +1940,7 @@
         <v>6.6666666666666669E-11</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -1963,15 +1971,18 @@
         <v>-5.0000000000000002E-11</v>
       </c>
       <c r="K37" s="6">
+        <f>-1/(1000000000*15)</f>
+        <v>-6.6666666666666669E-11</v>
+      </c>
+      <c r="L37" s="6">
         <f>-1/(1000000000*25)</f>
         <v>-3.9999999999999998E-11</v>
       </c>
-      <c r="L37" s="6">
-        <f>-1/(1000000000*15)</f>
-        <v>-6.6666666666666669E-11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1994,7 +2005,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>170</v>
       </c>
@@ -2017,7 +2028,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>172</v>
       </c>
@@ -2040,7 +2051,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -2064,7 +2075,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -2088,7 +2099,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -2124,7 +2135,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -2160,7 +2171,7 @@
         <v>8.3699999999999992</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -2183,7 +2194,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -2203,7 +2214,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -2219,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -2227,7 +2239,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2235,7 +2247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2243,7 +2255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2251,7 +2263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2259,7 +2271,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2267,12 +2279,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2298,7 +2310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2318,7 +2330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -2341,7 +2353,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -2364,7 +2376,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -2387,7 +2399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -2410,7 +2422,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -2433,7 +2445,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>48</v>
       </c>
@@ -2479,7 +2491,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>203</v>
       </c>
@@ -2502,7 +2514,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -2525,7 +2537,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -2548,7 +2560,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -2571,7 +2583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -2594,7 +2606,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>203</v>
       </c>
@@ -2619,7 +2631,7 @@
       <c r="Q71" s="3"/>
       <c r="S71" s="3"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -2644,7 +2656,7 @@
       <c r="Q72" s="4"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -2669,7 +2681,7 @@
       <c r="Q73" s="3"/>
       <c r="S73" s="3"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>44</v>
       </c>
@@ -2694,7 +2706,7 @@
       <c r="Q74" s="3"/>
       <c r="S74" s="3"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>60</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>210</v>
       </c>
@@ -2738,7 +2750,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>213</v>
       </c>
@@ -2759,7 +2771,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>217</v>
       </c>
@@ -2780,11 +2792,11 @@
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -2792,7 +2804,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -2800,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -2808,7 +2820,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2824,7 +2836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2832,7 +2844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2840,7 +2852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -2848,12 +2860,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -2879,7 +2891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>65</v>
       </c>
@@ -2899,7 +2911,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>66</v>
       </c>
@@ -2922,7 +2934,7 @@
       <c r="Q91" s="4"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>67</v>
       </c>
@@ -2945,7 +2957,7 @@
       <c r="Q92" s="3"/>
       <c r="S92" s="3"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>68</v>
       </c>
@@ -2968,7 +2980,7 @@
       <c r="Q93" s="3"/>
       <c r="S93" s="3"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>69</v>
       </c>
@@ -2990,7 +3002,7 @@
       <c r="H94" s="12"/>
       <c r="I94" s="13"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -3011,7 +3023,7 @@
       </c>
       <c r="H95" s="12"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>71</v>
       </c>
@@ -3032,7 +3044,7 @@
       </c>
       <c r="H96" s="12"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>72</v>
       </c>
@@ -3053,7 +3065,7 @@
       </c>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -3074,7 +3086,8 @@
       </c>
       <c r="H98" s="12"/>
     </row>
-    <row r="100" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -3082,7 +3095,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1</v>
       </c>
@@ -3090,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -3098,7 +3111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -3106,7 +3119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -3114,7 +3127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3122,7 +3135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -3130,7 +3143,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -3138,50 +3151,53 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="K109" t="s">
+      <c r="K109" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="L109" t="s">
+      <c r="L109" s="5" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -3201,7 +3217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>82</v>
       </c>
@@ -3236,7 +3252,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -3266,16 +3282,16 @@
         <f>B112</f>
         <v>5.0000000000000003E-10</v>
       </c>
-      <c r="K112" s="6">
-        <f>1/(1000000000*25)</f>
-        <v>3.9999999999999998E-11</v>
+      <c r="K112">
+        <f>1/(100000000*25)</f>
+        <v>4.0000000000000001E-10</v>
       </c>
       <c r="L112" s="6">
-        <f>1/(1000000000*15)</f>
-        <v>6.6666666666666669E-11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1/(100000000*15)</f>
+        <v>6.6666666666666664E-10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>133</v>
       </c>
@@ -3301,20 +3317,23 @@
       <c r="I113">
         <v>5</v>
       </c>
-      <c r="J113" s="6">
-        <f>B113</f>
+      <c r="J113">
+        <f>-1/(100000000*20)</f>
         <v>-5.0000000000000003E-10</v>
       </c>
-      <c r="K113" s="6">
-        <f>-1/(1000000000*25)</f>
-        <v>-3.9999999999999998E-11</v>
-      </c>
-      <c r="L113" s="6">
-        <f>-1/(1000000000*15)</f>
-        <v>-6.6666666666666669E-11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <f>-1/(100000000*15)</f>
+        <v>-6.6666666666666664E-10</v>
+      </c>
+      <c r="L113">
+        <f>-1/(100000000*25)</f>
+        <v>-4.0000000000000001E-10</v>
+      </c>
+      <c r="M113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>79</v>
       </c>
@@ -3349,7 +3368,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>81</v>
       </c>
@@ -3384,7 +3403,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>40</v>
       </c>
@@ -3404,7 +3423,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -3412,7 +3432,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1</v>
       </c>
@@ -3420,7 +3440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>2</v>
       </c>
@@ -3428,7 +3448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3436,7 +3456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3444,7 +3464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3452,7 +3472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -3460,7 +3480,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -3468,12 +3488,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -3510,8 +3530,11 @@
       <c r="L127" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>169</v>
       </c>
@@ -3531,7 +3554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>82</v>
       </c>
@@ -3566,7 +3589,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>118</v>
       </c>
@@ -3596,16 +3619,16 @@
         <f>B130</f>
         <v>5.0000000000000003E-10</v>
       </c>
-      <c r="K130" s="6">
-        <f>1/(1000000000*25)</f>
-        <v>3.9999999999999998E-11</v>
+      <c r="K130">
+        <f>1/(100000000*25)</f>
+        <v>4.0000000000000001E-10</v>
       </c>
       <c r="L130" s="6">
-        <f>1/(1000000000*15)</f>
-        <v>6.6666666666666669E-11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+        <f>1/(100000000*15)</f>
+        <v>6.6666666666666664E-10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3631,20 +3654,23 @@
       <c r="I131">
         <v>5</v>
       </c>
-      <c r="J131" s="6">
-        <f>B131</f>
+      <c r="J131">
+        <f>-1/(100000000*20)</f>
         <v>-5.0000000000000003E-10</v>
       </c>
-      <c r="K131" s="6">
-        <f>-1/(1000000000*25)</f>
-        <v>-3.9999999999999998E-11</v>
-      </c>
-      <c r="L131" s="6">
-        <f>-1/(1000000000*15)</f>
-        <v>-6.6666666666666669E-11</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <f>-1/(100000000*15)</f>
+        <v>-6.6666666666666664E-10</v>
+      </c>
+      <c r="L131">
+        <f>-1/(100000000*25)</f>
+        <v>-4.0000000000000001E-10</v>
+      </c>
+      <c r="M131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -3679,7 +3705,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>81</v>
       </c>
@@ -3714,7 +3740,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>100</v>
       </c>
@@ -3737,7 +3763,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>40</v>
       </c>
@@ -3757,7 +3783,8 @@
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -3765,7 +3792,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1</v>
       </c>
@@ -3773,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2</v>
       </c>
@@ -3781,7 +3808,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -3789,7 +3816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -3797,7 +3824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3805,7 +3832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -3813,7 +3840,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -3821,12 +3848,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>11</v>
       </c>
@@ -3852,7 +3879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>118</v>
       </c>
@@ -3872,7 +3899,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>203</v>
       </c>
@@ -3895,7 +3922,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>106</v>
       </c>
@@ -3918,7 +3945,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>203</v>
       </c>
@@ -3941,7 +3968,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -3964,7 +3991,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>43</v>
       </c>
@@ -3987,7 +4014,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>119</v>
       </c>
@@ -4010,7 +4037,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>60</v>
       </c>
@@ -4033,7 +4060,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>44</v>
       </c>
@@ -4056,7 +4083,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>119</v>
       </c>
@@ -4079,7 +4106,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>120</v>
       </c>
@@ -4102,7 +4129,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -4125,7 +4152,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>59</v>
       </c>
@@ -4148,7 +4175,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>121</v>
       </c>
@@ -4171,7 +4198,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>44</v>
       </c>
@@ -4194,7 +4221,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>43</v>
       </c>
@@ -4217,7 +4244,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>125</v>
       </c>
@@ -4240,7 +4267,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>120</v>
       </c>
@@ -4263,7 +4290,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>156</v>
       </c>
@@ -4286,7 +4313,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>44</v>
       </c>
@@ -4309,7 +4336,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>43</v>
       </c>
@@ -4332,7 +4359,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>210</v>
       </c>
@@ -4353,7 +4380,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>213</v>
       </c>
@@ -4374,7 +4401,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>217</v>
       </c>
@@ -4395,10 +4422,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="D171" s="10"/>
     </row>
-    <row r="172" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>0</v>
       </c>
@@ -4406,7 +4433,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -4414,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>2</v>
       </c>
@@ -4422,7 +4449,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -4430,7 +4457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -4438,7 +4465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -4446,7 +4473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -4454,7 +4481,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -4462,12 +4489,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -4493,7 +4520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>133</v>
       </c>
@@ -4513,7 +4540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>66</v>
       </c>
@@ -4535,7 +4562,7 @@
       <c r="Q183" s="4"/>
       <c r="S183" s="4"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>67</v>
       </c>
@@ -4557,7 +4584,7 @@
       <c r="Q184" s="3"/>
       <c r="S184" s="3"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>68</v>
       </c>
@@ -4579,7 +4606,7 @@
       <c r="Q185" s="3"/>
       <c r="S185" s="3"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>73</v>
       </c>
@@ -4599,7 +4626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -4619,7 +4646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>113</v>
       </c>
@@ -4639,7 +4666,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>134</v>
       </c>
@@ -4659,10 +4686,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="G190" s="7"/>
     </row>
-    <row r="191" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>0</v>
       </c>
@@ -4670,7 +4697,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1</v>
       </c>
@@ -4678,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>2</v>
       </c>
@@ -4686,7 +4713,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -4694,7 +4721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -4702,7 +4729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -4710,7 +4737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -4718,7 +4745,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>19</v>
       </c>
@@ -4726,12 +4753,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -4757,7 +4784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>82</v>
       </c>
@@ -4777,7 +4804,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>221</v>
       </c>
@@ -4800,7 +4827,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>227</v>
       </c>
@@ -4823,7 +4850,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>26</v>
       </c>
@@ -4846,11 +4873,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>0</v>
       </c>
@@ -4858,7 +4885,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1</v>
       </c>
@@ -4866,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>2</v>
       </c>
@@ -4874,7 +4901,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>3</v>
       </c>
@@ -4882,7 +4909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -4890,7 +4917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -4898,7 +4925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>9</v>
       </c>
@@ -4906,7 +4933,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -4914,12 +4941,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>11</v>
       </c>
@@ -4960,7 +4987,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="str">
         <f>B206</f>
         <v>polyethyleneimine (PEI) production, for sorbent-based direct air capture system</v>
@@ -4982,7 +5009,7 @@
         <v>polyethyleneimine</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>93</v>
       </c>
@@ -5016,7 +5043,7 @@
         <v>2.5299999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>85</v>
       </c>
@@ -5050,7 +5077,7 @@
         <v>4.07</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>94</v>
       </c>
@@ -5084,7 +5111,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>95</v>
       </c>
@@ -5118,7 +5145,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>94</v>
       </c>
@@ -5152,7 +5179,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>96</v>
       </c>
@@ -5191,7 +5218,7 @@
         <v>0.20300000000000015</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>97</v>
       </c>
@@ -5230,7 +5257,7 @@
         <v>2.4240000000000022</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>87</v>
       </c>
@@ -5292,13 +5319,13 @@
         <v>0.34499999999999997</v>
       </c>
       <c r="K225">
+        <v>0.27</v>
+      </c>
+      <c r="L225">
         <v>0.42</v>
       </c>
-      <c r="L225">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>86</v>
       </c>
@@ -5332,7 +5359,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>74</v>
       </c>
@@ -5360,20 +5387,20 @@
         <v>-1.5</v>
       </c>
       <c r="K227">
+        <v>-2.63</v>
+      </c>
+      <c r="L227">
         <v>-0.37</v>
-      </c>
-      <c r="L227">
-        <v>-2.63</v>
       </c>
       <c r="M227" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>0</v>
       </c>
@@ -5381,7 +5408,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1</v>
       </c>
@@ -5389,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2</v>
       </c>
@@ -5397,7 +5424,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>3</v>
       </c>
@@ -5405,7 +5432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -5413,7 +5440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -5421,7 +5448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -5429,7 +5456,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -5437,12 +5464,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>11</v>
       </c>
@@ -5480,7 +5507,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
         <f>B229</f>
         <v>silica gel production, for sorbent-based direct air capture system</v>
@@ -5502,7 +5529,7 @@
         <v>silica gel</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>84</v>
       </c>
@@ -5524,7 +5551,7 @@
       <c r="Q240" s="4"/>
       <c r="S240" s="4"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>85</v>
       </c>
@@ -5544,7 +5571,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>86</v>
       </c>
@@ -5577,7 +5604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>87</v>
       </c>
@@ -5597,7 +5624,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>204</v>
       </c>
@@ -5619,7 +5646,7 @@
       </c>
       <c r="M244" s="2"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>152</v>
       </c>
@@ -5636,11 +5663,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="J246" s="2"/>
     </row>
-    <row r="247" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>0</v>
       </c>
@@ -5648,7 +5675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1</v>
       </c>
@@ -5656,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>2</v>
       </c>
@@ -5664,7 +5691,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>3</v>
       </c>
@@ -5672,7 +5699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -5680,7 +5707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -5688,7 +5715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>9</v>
       </c>
@@ -5696,7 +5723,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>19</v>
       </c>
@@ -5704,12 +5731,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>11</v>
       </c>
@@ -5735,7 +5762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>100</v>
       </c>
@@ -5755,7 +5782,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>203</v>
       </c>
@@ -5778,7 +5805,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>156</v>
       </c>
@@ -5801,7 +5828,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>43</v>
       </c>
@@ -5824,7 +5851,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>103</v>
       </c>
@@ -5847,7 +5874,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>150</v>
       </c>
@@ -5893,7 +5920,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:10" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>105</v>
       </c>
@@ -5917,7 +5944,7 @@
       </c>
       <c r="J264" s="2"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>106</v>
       </c>
@@ -5940,7 +5967,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>107</v>
       </c>
@@ -5963,7 +5990,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>108</v>
       </c>
@@ -5986,7 +6013,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>103</v>
       </c>
@@ -6009,7 +6036,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>150</v>
       </c>
@@ -6032,7 +6059,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>36</v>
       </c>
@@ -6055,7 +6082,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>109</v>
       </c>
@@ -6078,7 +6105,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>105</v>
       </c>
@@ -6101,7 +6128,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>60</v>
       </c>
@@ -6124,7 +6151,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>43</v>
       </c>
@@ -6147,7 +6174,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>203</v>
       </c>
@@ -6170,7 +6197,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>156</v>
       </c>
@@ -6193,7 +6220,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>36</v>
       </c>
@@ -6239,7 +6266,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>66</v>
       </c>
@@ -6262,7 +6289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>67</v>
       </c>
@@ -6286,7 +6313,7 @@
       </c>
       <c r="J280" s="2"/>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>113</v>
       </c>
@@ -6309,7 +6336,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>114</v>
       </c>
@@ -6332,7 +6359,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>115</v>
       </c>
@@ -6355,7 +6382,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="285" spans="1:16" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="285" spans="1:16" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="14" t="s">
         <v>0</v>
       </c>
@@ -6369,7 +6397,7 @@
       <c r="O285" s="16"/>
       <c r="P285" s="16"/>
     </row>
-    <row r="286" spans="1:16" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="15" t="s">
         <v>7</v>
       </c>
@@ -6383,7 +6411,7 @@
       <c r="O286" s="16"/>
       <c r="P286" s="16"/>
     </row>
-    <row r="287" spans="1:16" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="15" t="s">
         <v>1</v>
       </c>
@@ -6397,7 +6425,7 @@
       <c r="O287" s="16"/>
       <c r="P287" s="16"/>
     </row>
-    <row r="288" spans="1:16" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="15" t="s">
         <v>2</v>
       </c>
@@ -6411,7 +6439,7 @@
       <c r="O288" s="16"/>
       <c r="P288" s="16"/>
     </row>
-    <row r="289" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="15" t="s">
         <v>3</v>
       </c>
@@ -6425,7 +6453,7 @@
       <c r="O289" s="16"/>
       <c r="P289" s="16"/>
     </row>
-    <row r="290" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="15" t="s">
         <v>5</v>
       </c>
@@ -6439,7 +6467,7 @@
       <c r="O290" s="16"/>
       <c r="P290" s="16"/>
     </row>
-    <row r="291" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="15" t="s">
         <v>9</v>
       </c>
@@ -6453,7 +6481,7 @@
       <c r="O291" s="16"/>
       <c r="P291" s="16"/>
     </row>
-    <row r="292" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="15" t="s">
         <v>179</v>
       </c>
@@ -6467,7 +6495,7 @@
       <c r="O292" s="16"/>
       <c r="P292" s="16"/>
     </row>
-    <row r="293" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="14" t="s">
         <v>10</v>
       </c>
@@ -6478,7 +6506,7 @@
       <c r="O293" s="16"/>
       <c r="P293" s="16"/>
     </row>
-    <row r="294" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="14" t="s">
         <v>11</v>
       </c>
@@ -6538,7 +6566,7 @@
       </c>
       <c r="T294" s="1"/>
     </row>
-    <row r="295" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="15" t="s">
         <v>177</v>
       </c>
@@ -6568,7 +6596,7 @@
       <c r="P295" s="16"/>
       <c r="T295"/>
     </row>
-    <row r="296" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="15" t="s">
         <v>192</v>
       </c>
@@ -6618,7 +6646,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="297" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="15" t="s">
         <v>39</v>
       </c>
@@ -6668,7 +6696,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="298" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="15" t="s">
         <v>194</v>
       </c>
@@ -6715,7 +6743,7 @@
         <v>0.26139455023340635</v>
       </c>
     </row>
-    <row r="299" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="15" t="s">
         <v>32</v>
       </c>
@@ -6815,7 +6843,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="301" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="15" t="s">
         <v>195</v>
       </c>
@@ -6869,7 +6897,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="302" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="15" t="s">
         <v>93</v>
       </c>
@@ -6919,7 +6947,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="303" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="15" t="s">
         <v>94</v>
       </c>
@@ -6969,7 +6997,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="304" spans="1:20" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="15" t="s">
         <v>197</v>
       </c>
@@ -7019,7 +7047,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="305" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" s="15" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="K305" s="16"/>
       <c r="L305" s="16"/>
       <c r="M305" s="16"/>
@@ -7027,7 +7055,7 @@
       <c r="O305" s="16"/>
       <c r="P305" s="16"/>
     </row>
-    <row r="306" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>0</v>
       </c>
@@ -7035,7 +7063,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -7043,7 +7071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>1</v>
       </c>
@@ -7051,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>2</v>
       </c>
@@ -7059,7 +7087,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>3</v>
       </c>
@@ -7067,7 +7095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>5</v>
       </c>
@@ -7075,7 +7103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -7083,7 +7111,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -7091,7 +7119,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>179</v>
       </c>
@@ -7099,7 +7127,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>201</v>
       </c>
@@ -7107,12 +7135,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>11</v>
       </c>
@@ -7171,7 +7199,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>199</v>
       </c>
@@ -7191,7 +7219,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>192</v>
       </c>
@@ -7242,7 +7270,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>39</v>
       </c>
@@ -7293,7 +7321,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>32</v>
       </c>
@@ -7393,7 +7421,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>195</v>
       </c>
@@ -7444,7 +7472,7 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="21" t="s">
         <v>93</v>
       </c>
@@ -7494,7 +7522,8 @@
         <v>0.16679850853156178</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="326" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>0</v>
       </c>
@@ -7502,7 +7531,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -7510,7 +7539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>1</v>
       </c>
@@ -7518,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>2</v>
       </c>
@@ -7526,7 +7555,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>3</v>
       </c>
@@ -7534,7 +7563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>5</v>
       </c>
@@ -7542,15 +7571,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>19</v>
       </c>
       <c r="B332" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>9</v>
       </c>
@@ -7558,12 +7587,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>11</v>
       </c>
@@ -7600,7 +7629,7 @@
       <c r="R335" s="5"/>
       <c r="S335" s="5"/>
     </row>
-    <row r="336" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="28" t="str">
         <f>B326</f>
         <v>carbon dioxide, captured at cement production plant, using monoethanolamine</v>
@@ -7622,9 +7651,9 @@
         <v>carbon dioxide, captured at cement plant</v>
       </c>
     </row>
-    <row r="337" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B337" s="29">
         <v>1</v>
@@ -7639,10 +7668,10 @@
         <v>16</v>
       </c>
       <c r="G337" s="28" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="338" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="338" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="28" t="s">
         <v>93</v>
       </c>
@@ -7667,7 +7696,7 @@
       </c>
       <c r="N338" s="29"/>
     </row>
-    <row r="339" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="28" t="s">
         <v>94</v>
       </c>
@@ -7688,21 +7717,21 @@
         <v>146</v>
       </c>
       <c r="H339" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N339" s="29"/>
       <c r="P339" s="29"/>
     </row>
-    <row r="340" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="28" t="s">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="B340" s="29">
         <f>(3.76-0.11)/0.9</f>
         <v>4.0555555555555554</v>
       </c>
       <c r="C340" s="28" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D340" s="28" t="s">
         <v>23</v>
@@ -7711,7 +7740,7 @@
         <v>16</v>
       </c>
       <c r="G340" s="28" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="H340" s="28" t="s">
         <v>247</v>
@@ -7789,12 +7818,12 @@
         <v>25</v>
       </c>
       <c r="H343" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N343" s="29"/>
       <c r="Q343" s="30"/>
     </row>
-    <row r="344" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="28" t="s">
         <v>241</v>
       </c>
@@ -7818,7 +7847,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="345" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="28" t="s">
         <v>74</v>
       </c>
@@ -7842,7 +7871,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="346" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="28" t="s">
         <v>244</v>
       </c>
@@ -7863,7 +7892,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="347" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="28" t="s">
         <v>246</v>
       </c>
@@ -7882,15 +7911,16 @@
       </c>
       <c r="G347" s="29"/>
     </row>
-    <row r="349" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:17" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="349" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>7</v>
       </c>
@@ -7898,7 +7928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>1</v>
       </c>
@@ -7906,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>2</v>
       </c>
@@ -7914,7 +7944,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>3</v>
       </c>
@@ -7922,7 +7952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -7930,28 +7960,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>19</v>
       </c>
       <c r="B355" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>9</v>
       </c>
       <c r="B356" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>11</v>
       </c>
@@ -7988,7 +8018,7 @@
       <c r="R358" s="5"/>
       <c r="S358" s="5"/>
     </row>
-    <row r="359" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="28" t="str">
         <f>B349</f>
         <v>carbon dioxide, captured at cement production plant, using direct separation</v>
@@ -8010,9 +8040,9 @@
         <v>carbon dioxide, captured at cement plant</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B360" s="29">
         <v>1</v>
@@ -8028,7 +8058,7 @@
         <v>16</v>
       </c>
       <c r="G360" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H360" s="28"/>
     </row>
@@ -8053,19 +8083,21 @@
         <v>25</v>
       </c>
       <c r="H361" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N361" s="32"/>
     </row>
-    <row r="364" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="364" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -8073,7 +8105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>1</v>
       </c>
@@ -8081,7 +8113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>2</v>
       </c>
@@ -8089,7 +8121,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>3</v>
       </c>
@@ -8097,7 +8129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>5</v>
       </c>
@@ -8105,28 +8137,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>19</v>
       </c>
       <c r="B370" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>9</v>
       </c>
       <c r="B371" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>11</v>
       </c>
@@ -8163,7 +8195,7 @@
       <c r="R373" s="5"/>
       <c r="S373" s="5"/>
     </row>
-    <row r="374" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:19" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="28" t="str">
         <f>B364</f>
         <v>carbon dioxide, captured at cement production plant, using oxyfuel</v>
@@ -8185,9 +8217,9 @@
         <v>carbon dioxide, captured at cement plant</v>
       </c>
     </row>
-    <row r="375" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B375" s="29">
         <v>1</v>
@@ -8203,13 +8235,13 @@
         <v>16</v>
       </c>
       <c r="G375" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H375" s="28"/>
     </row>
-    <row r="376" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B376" s="6">
         <f>B374*32/44/(1-0.11)</f>
@@ -8225,10 +8257,10 @@
         <v>16</v>
       </c>
       <c r="G376" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H376" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.2">
@@ -8252,7 +8284,7 @@
         <v>25</v>
       </c>
       <c r="H377" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="378" spans="1:19" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8276,7 +8308,7 @@
         <v>25</v>
       </c>
       <c r="H378" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="379" spans="1:19" x14ac:dyDescent="0.2">
@@ -8300,7 +8332,7 @@
         <v>25</v>
       </c>
       <c r="H379" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M379" s="27"/>
       <c r="N379" s="31"/>
@@ -8326,13 +8358,20 @@
         <v>25</v>
       </c>
       <c r="H380" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M380" s="27"/>
       <c r="N380" s="31"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T361" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:T380" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="market group for electricity, low voltage"/>
+        <filter val="market group for electricity, medium voltage"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
